--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3974202.63867484</v>
+        <v>3969819.097834043</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9975138.252205899</v>
+        <v>9964927.035287924</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>429604.7259431077</v>
+        <v>430763.7823717227</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7451455.298339726</v>
+        <v>7451601.610615646</v>
       </c>
     </row>
     <row r="11">
@@ -658,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>314.6757550035595</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -712,16 +712,16 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>2.287273915476826</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>38.39834678541126</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,25 +861,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>139.8939792152983</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -901,22 +901,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>215.8764815398785</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>244.0093818947364</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1068,13 +1068,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>99.90187484148926</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>25.5423460032218</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>358.2156092675456</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>404.3795358314629</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>6.165601831728317</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>129.0246247964034</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9088959876461</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>86.27179222793497</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1578,10 +1578,10 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>22.79601828574663</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
@@ -1618,13 +1618,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127566</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045444</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1672,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1703,7 +1703,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>33.97895442578996</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>86.27179222793497</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
         <v>181.338488358459</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,22 +1894,22 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060082016</v>
+        <v>84.61259060081882</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374743</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
       </c>
       <c r="V17" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1940,7 +1940,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561467</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T18" t="n">
         <v>188.3907690366107</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>103.1983720868894</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2019,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.453989791954</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108398</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
-        <v>181.3384883584591</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
-        <v>46.37757319442774</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
         <v>286.1854515484204</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.6125906008201</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374743</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
         <v>250.9088959876463</v>
@@ -2177,7 +2177,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561467</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T21" t="n">
         <v>188.3907690366107</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>45.8384047312883</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.8045767444093</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108398</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.3384883584591</v>
+        <v>90.70669256541809</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H23" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.6125906008201</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T23" t="n">
-        <v>199.1970568374743</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U23" t="n">
         <v>250.9088959876463</v>
@@ -2414,7 +2414,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561467</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T24" t="n">
         <v>188.3907690366107</v>
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>111.025957464583</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>140.453989791954</v>
+        <v>131.6267707433221</v>
       </c>
       <c r="I25" t="n">
-        <v>81.8045767444093</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.3384883584591</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
         <v>217.4819944627618</v>
@@ -2614,7 +2614,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>64.44601915223836</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
-        <v>10.4506716571283</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U28" t="n">
         <v>286.1854515484204</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>64.44601915223836</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>174.0679901158117</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7351534876165766</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>64.44601915223836</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>67.18075159108356</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T34" t="n">
         <v>217.4819944627618</v>
@@ -3246,7 +3246,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3277,10 +3277,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
         <v>283.5630920045443</v>
@@ -3322,13 +3322,13 @@
         <v>199.1970568374736</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9088959876464</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701362</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
@@ -3426,25 +3426,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>64.44601915223836</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>181.338488358459</v>
       </c>
       <c r="T37" t="n">
-        <v>98.42180001328848</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
         <v>286.1854515484204</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722607</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9088959876452</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3599,7 +3599,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>99.35054486412808</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>52.67509507321164</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T41" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9088959876461</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3836,7 +3836,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3900,25 +3900,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>23.57530571412365</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>108.1654303178668</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S43" t="n">
         <v>181.338488358459</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4070,10 +4070,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>2.119387955707482</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T46" t="n">
-        <v>170.70546349636</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1703.566937845283</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="C2" t="n">
-        <v>1703.566937845283</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>525.2632558086682</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2463.632536170485</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2463.632536170485</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2463.632536170485</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>2090.166777909405</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y2" t="n">
-        <v>2090.166777909405</v>
+        <v>936.2491605982757</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>484.4236418782191</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T4" t="n">
-        <v>484.4236418782191</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="U4" t="n">
-        <v>195.250031532787</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="V4" t="n">
-        <v>195.250031532787</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>138.3857151273829</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1156.75737613363</v>
+        <v>1359.546482223454</v>
       </c>
       <c r="C5" t="n">
-        <v>787.7948591932184</v>
+        <v>990.5839652830421</v>
       </c>
       <c r="D5" t="n">
-        <v>787.7948591932184</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="E5" t="n">
-        <v>402.0066065949742</v>
+        <v>632.3182666762915</v>
       </c>
       <c r="F5" t="n">
-        <v>395.0611058457707</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G5" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,7 +4570,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.885861802402</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.885861802402</v>
+        <v>2450.674967892226</v>
       </c>
       <c r="V5" t="n">
-        <v>1916.822974458832</v>
+        <v>2119.612080548655</v>
       </c>
       <c r="W5" t="n">
-        <v>1916.822974458832</v>
+        <v>2119.612080548655</v>
       </c>
       <c r="X5" t="n">
-        <v>1543.357216197752</v>
+        <v>1746.146322287575</v>
       </c>
       <c r="Y5" t="n">
-        <v>1543.357216197752</v>
+        <v>1746.146322287575</v>
       </c>
     </row>
     <row r="6">
@@ -4661,7 +4661,7 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79.74333131856829</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="C7" t="n">
-        <v>79.74333131856829</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="D7" t="n">
-        <v>79.74333131856829</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="E7" t="n">
-        <v>79.74333131856829</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="F7" t="n">
-        <v>79.74333131856829</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="G7" t="n">
-        <v>79.74333131856829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>79.74333131856829</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T7" t="n">
-        <v>550.5654064942401</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U7" t="n">
-        <v>261.391796148808</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V7" t="n">
-        <v>261.391796148808</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="W7" t="n">
-        <v>261.391796148808</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="X7" t="n">
-        <v>261.391796148808</v>
+        <v>154.8539665087374</v>
       </c>
       <c r="Y7" t="n">
-        <v>261.391796148808</v>
+        <v>154.8539665087374</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1686.741202187451</v>
+        <v>1589.347031634718</v>
       </c>
       <c r="C8" t="n">
-        <v>1317.778685247039</v>
+        <v>1220.384514694307</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>862.1188160875561</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>476.3305634893118</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2048.575150942547</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="X8" t="n">
-        <v>2048.575150942547</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="Y8" t="n">
-        <v>2048.575150942547</v>
+        <v>1975.94687169884</v>
       </c>
     </row>
     <row r="9">
@@ -4880,28 +4880,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036446</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610023</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>184.2708856551154</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036446</v>
+        <v>438.7118141694738</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036446</v>
+        <v>217.9192350259437</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D11" t="n">
         <v>1591.032978284208</v>
@@ -5029,7 +5029,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G11" t="n">
         <v>380.2757138127629</v>
@@ -5041,52 +5041,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>373.34422365072</v>
+        <v>424.1437450015196</v>
       </c>
       <c r="K11" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892015</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O11" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P11" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q11" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R11" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T11" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="12">
@@ -5117,28 +5117,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I12" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J12" t="n">
-        <v>94.88738072612962</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K12" t="n">
-        <v>425.3961232894884</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L12" t="n">
-        <v>916.1284561332398</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="M12" t="n">
-        <v>1508.146810385368</v>
+        <v>734.6951238849127</v>
       </c>
       <c r="N12" t="n">
-        <v>1587.352361269496</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O12" t="n">
-        <v>2134.22883626969</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.812354695766</v>
@@ -5175,13 +5175,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>495.0957149476001</v>
+        <v>874.9184063975742</v>
       </c>
       <c r="C13" t="n">
-        <v>407.9524904749385</v>
+        <v>705.9822234696674</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9524904749385</v>
+        <v>555.8655840573316</v>
       </c>
       <c r="E13" t="n">
         <v>407.9524904749385</v>
@@ -5226,25 +5226,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S13" t="n">
-        <v>2178.382964033126</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="T13" t="n">
-        <v>1958.704181747508</v>
+        <v>2338.526873197482</v>
       </c>
       <c r="U13" t="n">
-        <v>1669.627968062235</v>
+        <v>2049.450659512209</v>
       </c>
       <c r="V13" t="n">
-        <v>1414.943479856348</v>
+        <v>1794.766171306322</v>
       </c>
       <c r="W13" t="n">
-        <v>1125.526309819387</v>
+        <v>1505.349001269361</v>
       </c>
       <c r="X13" t="n">
-        <v>897.5367589213699</v>
+        <v>1277.359450371344</v>
       </c>
       <c r="Y13" t="n">
-        <v>676.7441797778398</v>
+        <v>1056.566871227814</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D14" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E14" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127631</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507201</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K14" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P14" t="n">
-        <v>4151.951912946808</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403615</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.740996026521</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J15" t="n">
-        <v>93.84834815160706</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K15" t="n">
-        <v>93.84834815160706</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L15" t="n">
-        <v>584.5806809953584</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M15" t="n">
-        <v>734.6951238849127</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N15" t="n">
-        <v>1356.791087284249</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O15" t="n">
-        <v>1903.667562284443</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P15" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.812354695766</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>642.4220035901732</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C16" t="n">
-        <v>473.4858206622663</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D16" t="n">
-        <v>323.3691812499305</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="E16" t="n">
-        <v>323.3691812499305</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F16" t="n">
-        <v>176.4792337520202</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G16" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H16" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J16" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L16" t="n">
         <v>820.2210160948589</v>
@@ -5497,64 +5497,64 @@
         <v>1949.298676890959</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E17" t="n">
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963568</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127632</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>373.3442236507183</v>
+        <v>424.14374500152</v>
       </c>
       <c r="K17" t="n">
-        <v>842.9746074383975</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L17" t="n">
-        <v>1462.494387944169</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M17" t="n">
-        <v>2183.498949883203</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N17" t="n">
-        <v>2920.783927800305</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610266</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297611</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403616</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V17" t="n">
         <v>3821.234779402499</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X17" t="n">
         <v>3095.000365871304</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3082.265894313995</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C18" t="n">
-        <v>2907.812865032868</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D18" t="n">
-        <v>2758.878455371617</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E18" t="n">
-        <v>2599.641000366161</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F18" t="n">
-        <v>2453.106442393046</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G18" t="n">
-        <v>2317.326192152976</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H18" t="n">
-        <v>2232.453401036193</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I18" t="n">
-        <v>2232.453401036193</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>2380.101382788038</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K18" t="n">
-        <v>2380.101382788038</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L18" t="n">
-        <v>2870.833715631787</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M18" t="n">
-        <v>3462.852069883912</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N18" t="n">
-        <v>4084.948033283245</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O18" t="n">
-        <v>4631.824508283436</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P18" t="n">
-        <v>4692.417407580353</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q18" t="n">
-        <v>4692.417407580353</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R18" t="n">
-        <v>4692.417407580353</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S18" t="n">
-        <v>4573.80570283771</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T18" t="n">
-        <v>4383.511996740123</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U18" t="n">
-        <v>4155.482495264494</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V18" t="n">
-        <v>3920.330387032751</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W18" t="n">
-        <v>3666.09303030455</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X18" t="n">
-        <v>3458.241530099017</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y18" t="n">
-        <v>3250.481231334063</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>849.5769285337228</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C19" t="n">
-        <v>680.6407456058159</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D19" t="n">
-        <v>530.5241061934802</v>
+        <v>344.9790755352643</v>
       </c>
       <c r="E19" t="n">
-        <v>382.6110126110871</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F19" t="n">
-        <v>235.7210651131767</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G19" t="n">
-        <v>235.7210651131767</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411603</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117229</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948558</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.146473931019</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946048</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.699365782251</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335685</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294186</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S19" t="n">
-        <v>2178.382964033116</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T19" t="n">
-        <v>2131.536930503391</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U19" t="n">
-        <v>1842.460716818118</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V19" t="n">
-        <v>1587.776228612231</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W19" t="n">
-        <v>1298.35905857527</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X19" t="n">
-        <v>1070.369507677253</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y19" t="n">
-        <v>849.5769285337228</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="20">
@@ -5740,46 +5740,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127636</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160784</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507183</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074383975</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944169</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883203</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.783927800305</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.64596425944</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.751434297611</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403616</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R20" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T20" t="n">
         <v>4405.740996026519</v>
@@ -5807,61 +5807,61 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C21" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D21" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E21" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F21" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G21" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>241.496329903452</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K21" t="n">
-        <v>241.496329903452</v>
+        <v>562.2602880588616</v>
       </c>
       <c r="L21" t="n">
-        <v>732.2286627472009</v>
+        <v>562.2602880588616</v>
       </c>
       <c r="M21" t="n">
-        <v>1324.247016999326</v>
+        <v>1154.278642310989</v>
       </c>
       <c r="N21" t="n">
-        <v>1946.342980398659</v>
+        <v>1776.374605710325</v>
       </c>
       <c r="O21" t="n">
-        <v>2493.219455398851</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.812354695767</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R21" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S21" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T21" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U21" t="n">
         <v>2016.877442379908</v>
@@ -5873,7 +5873,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X21" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y21" t="n">
         <v>1111.876178449477</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3266.855619163149</v>
+        <v>654.5023284669179</v>
       </c>
       <c r="C22" t="n">
-        <v>3097.919436235242</v>
+        <v>485.566145539011</v>
       </c>
       <c r="D22" t="n">
-        <v>2947.802796822907</v>
+        <v>485.566145539011</v>
       </c>
       <c r="E22" t="n">
-        <v>2799.889703240513</v>
+        <v>485.566145539011</v>
       </c>
       <c r="F22" t="n">
-        <v>2652.999755742603</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G22" t="n">
-        <v>2485.785560917182</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H22" t="n">
-        <v>2439.484141996689</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I22" t="n">
-        <v>2356.853256396275</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J22" t="n">
-        <v>2435.835379285829</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K22" t="n">
-        <v>2695.464106256391</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L22" t="n">
-        <v>3083.225924339524</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M22" t="n">
-        <v>3502.455516383982</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N22" t="n">
-        <v>3917.151382175688</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O22" t="n">
-        <v>4284.173839190716</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P22" t="n">
-        <v>4574.704274026919</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q22" t="n">
-        <v>4692.417407580353</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>4624.558062538854</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S22" t="n">
-        <v>4441.387872277784</v>
+        <v>2337.789577552444</v>
       </c>
       <c r="T22" t="n">
-        <v>4441.387872277784</v>
+        <v>2118.110795266826</v>
       </c>
       <c r="U22" t="n">
-        <v>4441.387872277784</v>
+        <v>1829.034581581553</v>
       </c>
       <c r="V22" t="n">
-        <v>4186.703384071897</v>
+        <v>1574.350093375666</v>
       </c>
       <c r="W22" t="n">
-        <v>3897.286214034936</v>
+        <v>1284.932923338705</v>
       </c>
       <c r="X22" t="n">
-        <v>3669.296663136919</v>
+        <v>1056.943372440688</v>
       </c>
       <c r="Y22" t="n">
-        <v>3448.504083993389</v>
+        <v>836.1507932971576</v>
       </c>
     </row>
     <row r="23">
@@ -5977,43 +5977,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G23" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507183</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074383975</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L23" t="n">
-        <v>1513.293909294994</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M23" t="n">
-        <v>2234.298471234028</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.58344915113</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610265</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.75143429761</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403615</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S23" t="n">
         <v>4606.9501443472</v>
@@ -6044,61 +6044,61 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C24" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D24" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E24" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F24" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G24" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>241.4963299034519</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K24" t="n">
-        <v>572.005072466809</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L24" t="n">
-        <v>572.005072466809</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="M24" t="n">
-        <v>734.6951238849225</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="N24" t="n">
-        <v>1356.791087284256</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O24" t="n">
-        <v>1903.667562284448</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P24" t="n">
-        <v>2323.251080710521</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R24" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S24" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T24" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U24" t="n">
         <v>2016.877442379908</v>
@@ -6110,7 +6110,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X24" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y24" t="n">
         <v>1111.876178449477</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>744.6035248193288</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C25" t="n">
-        <v>744.6035248193288</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D25" t="n">
-        <v>632.4560930369216</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="E25" t="n">
-        <v>632.4560930369216</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="F25" t="n">
-        <v>485.5661455390113</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="G25" t="n">
-        <v>318.3519507135902</v>
+        <v>226.8046822357708</v>
       </c>
       <c r="H25" t="n">
-        <v>176.4792337520205</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411603</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117229</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948558</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N25" t="n">
-        <v>1654.146473931019</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946048</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.699365782251</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335685</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2429.412499335685</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S25" t="n">
-        <v>2246.242309074615</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T25" t="n">
-        <v>2026.563526788997</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U25" t="n">
-        <v>1737.487313103724</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V25" t="n">
-        <v>1482.802824897837</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W25" t="n">
-        <v>1193.385654860876</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X25" t="n">
-        <v>965.3961039628589</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y25" t="n">
-        <v>744.6035248193288</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="26">
@@ -6202,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D26" t="n">
         <v>1591.032978284208</v>
@@ -6214,10 +6214,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H26" t="n">
         <v>93.84834815160703</v>
@@ -6232,7 +6232,7 @@
         <v>842.9746074384018</v>
       </c>
       <c r="L26" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M26" t="n">
         <v>2234.298471234014</v>
@@ -6262,16 +6262,16 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="27">
@@ -6302,28 +6302,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J27" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K27" t="n">
-        <v>302.0892292003572</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="L27" t="n">
-        <v>792.8215620441084</v>
+        <v>733.2676953217267</v>
       </c>
       <c r="M27" t="n">
-        <v>1384.839916296236</v>
+        <v>1325.286049573854</v>
       </c>
       <c r="N27" t="n">
-        <v>2006.935879695572</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.812354695766</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.812354695766</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3195.212722378793</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C28" t="n">
-        <v>3026.276539450886</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D28" t="n">
-        <v>2876.15990003855</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E28" t="n">
-        <v>2728.246806456157</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F28" t="n">
-        <v>2581.356858958247</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G28" t="n">
-        <v>2581.356858958247</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H28" t="n">
-        <v>2439.484141996677</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I28" t="n">
-        <v>2356.853256396264</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J28" t="n">
-        <v>2435.835379285818</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K28" t="n">
-        <v>2695.464106256382</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L28" t="n">
-        <v>3083.225924339516</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M28" t="n">
-        <v>3502.455516383975</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N28" t="n">
-        <v>3917.151382175683</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O28" t="n">
-        <v>4284.173839190712</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P28" t="n">
-        <v>4574.704274026916</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q28" t="n">
-        <v>4692.417407580351</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R28" t="n">
-        <v>4624.558062538853</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S28" t="n">
-        <v>4441.387872277784</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T28" t="n">
-        <v>4430.831638280684</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U28" t="n">
-        <v>4141.755424595411</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V28" t="n">
-        <v>3887.070936389523</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W28" t="n">
-        <v>3597.653766352563</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X28" t="n">
-        <v>3597.653766352563</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y28" t="n">
-        <v>3376.861187209033</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="29">
@@ -6451,13 +6451,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G29" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8483481516071</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I29" t="n">
         <v>93.84834815160703</v>
@@ -6490,7 +6490,7 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
@@ -6539,31 +6539,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>108.6891182291399</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K30" t="n">
-        <v>439.1978607924987</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L30" t="n">
-        <v>929.9301936362499</v>
+        <v>562.2602880588616</v>
       </c>
       <c r="M30" t="n">
-        <v>929.9301936362499</v>
+        <v>1154.278642310989</v>
       </c>
       <c r="N30" t="n">
-        <v>1552.026157035586</v>
+        <v>1776.374605710325</v>
       </c>
       <c r="O30" t="n">
-        <v>2098.90263203578</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="P30" t="n">
-        <v>2518.486150461856</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q30" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3350971725663</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C31" t="n">
-        <v>621.3989142446594</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D31" t="n">
-        <v>471.2822748323237</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E31" t="n">
-        <v>323.3691812499305</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F31" t="n">
-        <v>176.4792337520202</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G31" t="n">
-        <v>176.4792337520202</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H31" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I31" t="n">
         <v>93.84834815160703</v>
@@ -6660,13 +6660,13 @@
         <v>1414.943479856348</v>
       </c>
       <c r="W31" t="n">
-        <v>1239.117227214114</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X31" t="n">
-        <v>1011.127676316096</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y31" t="n">
-        <v>790.3350971725663</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="32">
@@ -6718,10 +6718,10 @@
         <v>3603.645964259458</v>
       </c>
       <c r="P32" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R32" t="n">
         <v>4692.417407580351</v>
@@ -6779,28 +6779,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K33" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L33" t="n">
-        <v>526.9340838249515</v>
+        <v>732.2286627472042</v>
       </c>
       <c r="M33" t="n">
-        <v>1118.952438077079</v>
+        <v>732.2286627472042</v>
       </c>
       <c r="N33" t="n">
-        <v>1741.048401476415</v>
+        <v>1354.32462614654</v>
       </c>
       <c r="O33" t="n">
-        <v>2287.924876476609</v>
+        <v>1901.201101146735</v>
       </c>
       <c r="P33" t="n">
-        <v>2287.924876476609</v>
+        <v>2320.784619572811</v>
       </c>
       <c r="Q33" t="n">
-        <v>2518.486150461856</v>
+        <v>2551.345893558057</v>
       </c>
       <c r="R33" t="n">
         <v>2553.812354695766</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>932.9503934145567</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C34" t="n">
-        <v>764.0142104866499</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D34" t="n">
-        <v>613.8975710743141</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E34" t="n">
-        <v>465.984477491921</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F34" t="n">
-        <v>319.0945299940106</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G34" t="n">
-        <v>318.3519507135898</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H34" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I34" t="n">
         <v>93.84834815160703</v>
@@ -6885,25 +6885,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S34" t="n">
-        <v>2361.553154294196</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T34" t="n">
-        <v>2141.874372008578</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U34" t="n">
-        <v>1852.798158323305</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V34" t="n">
-        <v>1852.798158323305</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W34" t="n">
-        <v>1563.380988286344</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X34" t="n">
-        <v>1335.391437388326</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y34" t="n">
-        <v>1114.598858244796</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C35" t="n">
         <v>1949.298676890959</v>
@@ -6925,19 +6925,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G35" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K35" t="n">
         <v>842.9746074384018</v>
@@ -6952,25 +6952,25 @@
         <v>2920.78392780032</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.44548561026</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297608</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403615</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.740996026521</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746071</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V35" t="n">
         <v>3821.234779402499</v>
@@ -6982,7 +6982,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K36" t="n">
-        <v>572.0050724668117</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L36" t="n">
-        <v>572.0050724668117</v>
+        <v>373.2380436180325</v>
       </c>
       <c r="M36" t="n">
-        <v>1164.023426718939</v>
+        <v>965.2563978701601</v>
       </c>
       <c r="N36" t="n">
-        <v>1786.119390118276</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O36" t="n">
-        <v>2287.924876476609</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P36" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q36" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
         <v>2553.812354695766</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2878.363445868495</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C37" t="n">
-        <v>2878.363445868495</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D37" t="n">
-        <v>2728.246806456159</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E37" t="n">
-        <v>2728.246806456159</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F37" t="n">
-        <v>2581.356858958249</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G37" t="n">
-        <v>2581.356858958249</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H37" t="n">
-        <v>2439.484141996679</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I37" t="n">
-        <v>2356.853256396266</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>2435.83537928582</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K37" t="n">
-        <v>2695.464106256384</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L37" t="n">
-        <v>3083.225924339518</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M37" t="n">
-        <v>3502.455516383977</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N37" t="n">
-        <v>3917.151382175684</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O37" t="n">
-        <v>4284.173839190714</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P37" t="n">
-        <v>4574.704274026918</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q37" t="n">
-        <v>4692.417407580353</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>4624.558062538855</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S37" t="n">
-        <v>4441.387872277785</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T37" t="n">
-        <v>4341.971912668403</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U37" t="n">
-        <v>4052.895698983129</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V37" t="n">
-        <v>3798.211210777243</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W37" t="n">
-        <v>3508.794040740282</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X37" t="n">
-        <v>3280.804489842265</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y37" t="n">
-        <v>3060.011910698734</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E38" t="n">
         <v>1205.244725685964</v>
@@ -7174,22 +7174,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K38" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P38" t="n">
         <v>4202.751434297606</v>
@@ -7207,19 +7207,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J39" t="n">
-        <v>241.496329903453</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K39" t="n">
-        <v>241.496329903453</v>
+        <v>302.0892292003572</v>
       </c>
       <c r="L39" t="n">
-        <v>732.2286627472043</v>
+        <v>792.8215620441084</v>
       </c>
       <c r="M39" t="n">
-        <v>1324.247016999332</v>
+        <v>1384.839916296236</v>
       </c>
       <c r="N39" t="n">
-        <v>1946.342980398668</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O39" t="n">
-        <v>2493.219455398862</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P39" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q39" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>678.2659052086697</v>
+        <v>1099.422008959557</v>
       </c>
       <c r="C40" t="n">
-        <v>509.3297222807628</v>
+        <v>930.4858260316502</v>
       </c>
       <c r="D40" t="n">
-        <v>408.9756365594213</v>
+        <v>780.3691866193144</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0625429770282</v>
+        <v>632.4560930369213</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0625429770282</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G40" t="n">
-        <v>93.84834815160703</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I40" t="n">
         <v>93.84834815160703</v>
@@ -7362,22 +7362,22 @@
         <v>2361.553154294196</v>
       </c>
       <c r="T40" t="n">
-        <v>2141.874372008578</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="U40" t="n">
-        <v>1852.798158323305</v>
+        <v>2072.476940608923</v>
       </c>
       <c r="V40" t="n">
-        <v>1598.113670117418</v>
+        <v>2019.269773868305</v>
       </c>
       <c r="W40" t="n">
-        <v>1308.696500080457</v>
+        <v>1729.852603831344</v>
       </c>
       <c r="X40" t="n">
-        <v>1080.70694918244</v>
+        <v>1501.863052933327</v>
       </c>
       <c r="Y40" t="n">
-        <v>859.9143700389094</v>
+        <v>1281.070473789797</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D41" t="n">
         <v>1591.032978284208</v>
@@ -7399,64 +7399,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I41" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K41" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N41" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R41" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T41" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>94.88738072612962</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>242.5353624779756</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K42" t="n">
-        <v>242.5353624779756</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L42" t="n">
-        <v>733.2676953217269</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="M42" t="n">
-        <v>1325.286049573855</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="N42" t="n">
-        <v>1868.341358050533</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O42" t="n">
-        <v>1868.341358050533</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P42" t="n">
-        <v>2287.924876476609</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q42" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R42" t="n">
         <v>2553.812354695766</v>
@@ -7548,22 +7548,22 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C43" t="n">
-        <v>495.0957149476001</v>
+        <v>471.2822748323237</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9790755352643</v>
+        <v>471.2822748323237</v>
       </c>
       <c r="E43" t="n">
-        <v>235.7210651131766</v>
+        <v>323.3691812499305</v>
       </c>
       <c r="F43" t="n">
-        <v>235.7210651131766</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G43" t="n">
-        <v>235.7210651131766</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I43" t="n">
         <v>93.84834815160703</v>
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.80771165551</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715098</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108348</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510104</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>793.8053387204961</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399033</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>95.37264148556096</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>378.2242654148063</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112155</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436022</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118413</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459571</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171644</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798342</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.29741395589</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596213</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.284286578419</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570208</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226637</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956523</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695443</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814818</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003549</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391036</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>460.805904433648</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.271346460533</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064408</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>95.61573535637419</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2623778840289</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1871500552495</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.512756271008</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.89124389756</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.489207452167</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O45" t="n">
-        <v>2299.489207452167</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.09297316441</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372037</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166504</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3027.272207753316</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C46" t="n">
-        <v>3027.272207753316</v>
+        <v>394.0188770611919</v>
       </c>
       <c r="D46" t="n">
-        <v>2877.155568340981</v>
+        <v>243.9022376488562</v>
       </c>
       <c r="E46" t="n">
-        <v>2877.155568340981</v>
+        <v>95.98914406646307</v>
       </c>
       <c r="F46" t="n">
-        <v>2730.26562084307</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G46" t="n">
-        <v>2563.06952155795</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H46" t="n">
-        <v>2421.357690400148</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I46" t="n">
-        <v>2339.270987048062</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>2419.507005478386</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K46" t="n">
-        <v>2681.196268003925</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L46" t="n">
-        <v>3071.594862179865</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M46" t="n">
-        <v>3493.6045649109</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N46" t="n">
-        <v>3911.014436570908</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O46" t="n">
-        <v>4280.543717279893</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P46" t="n">
-        <v>4573.219172853452</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q46" t="n">
-        <v>4692.417407580351</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>4625.371703832753</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S46" t="n">
-        <v>4442.516869487657</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T46" t="n">
-        <v>4270.087108380223</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U46" t="n">
-        <v>3981.011881724421</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V46" t="n">
-        <v>3726.327393518534</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W46" t="n">
-        <v>3436.910223481574</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X46" t="n">
-        <v>3208.920672583556</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y46" t="n">
-        <v>3208.920672583556</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714822</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8309,10 +8309,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783519</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747119</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>51.31264782909045</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>51.312647829089</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8947,10 +8947,10 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>51.31264782909074</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>51.31264782911705</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9418,13 +9418,13 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>51.31264782911717</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9643,7 +9643,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>51.31264782911637</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9880,10 +9880,10 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="M26" t="n">
-        <v>51.31264782909102</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -10366,13 +10366,13 @@
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>51.31264782909125</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10600,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>51.31264782909307</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10834,13 +10834,13 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>51.31264782908988</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -11071,7 +11071,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>51.31264782908988</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>80.97502887069287</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>194.6859761770152</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>145.8530257561473</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>60.1621704186342</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>43.23559055967974</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.8045767444093</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>171.1044212683341</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>94.61558506066567</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>90.63179579304087</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>37.58951555362931</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>8.827219048631804</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108398</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,7 +24654,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>207.0313228056335</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24900,7 +24900,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>112.4550082207793</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>164.8068993895504</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,25 +25314,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>76.00797063971555</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>119.0601944494733</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>49.26492815408427</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,13 +25602,13 @@
         <v>181.338488358459</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>199.4625482506164</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,25 +25788,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>143.6715153845042</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>38.26853232870236</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>143.3016600672238</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,13 +26070,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>46.69998683092822</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>629451.644072037</v>
+        <v>629451.6440720367</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>629451.644072037</v>
+        <v>629451.6440720367</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>629451.6440720371</v>
+        <v>629451.6440720367</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>629451.6440720368</v>
+        <v>629451.6440720367</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>629451.6440720368</v>
+        <v>629451.6440720367</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>629451.6440720368</v>
+        <v>629451.6440720367</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720368</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>629198.2785498287</v>
+        <v>629451.6440720367</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>800515.7256176764</v>
+        <v>800515.7256176763</v>
       </c>
       <c r="C2" t="n">
+        <v>800515.7256176763</v>
+      </c>
+      <c r="D2" t="n">
         <v>800515.7256176762</v>
       </c>
-      <c r="D2" t="n">
-        <v>800515.7256176764</v>
-      </c>
       <c r="E2" t="n">
-        <v>786515.9026905951</v>
+        <v>786515.9026905952</v>
       </c>
       <c r="F2" t="n">
         <v>786515.9026905951</v>
       </c>
       <c r="G2" t="n">
-        <v>786515.9026905947</v>
+        <v>786515.9026905952</v>
       </c>
       <c r="H2" t="n">
-        <v>786515.9026905943</v>
+        <v>786515.9026905952</v>
       </c>
       <c r="I2" t="n">
-        <v>786515.9026905947</v>
+        <v>786515.9026905951</v>
       </c>
       <c r="J2" t="n">
+        <v>786515.9026905952</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786515.9026905951</v>
+      </c>
+      <c r="L2" t="n">
+        <v>786515.902690595</v>
+      </c>
+      <c r="M2" t="n">
         <v>786515.9026905954</v>
       </c>
-      <c r="K2" t="n">
-        <v>786515.9026905952</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786515.9026905952</v>
-      </c>
-      <c r="M2" t="n">
-        <v>786515.9026905952</v>
-      </c>
       <c r="N2" t="n">
-        <v>786515.9026905952</v>
+        <v>786515.9026905954</v>
       </c>
       <c r="O2" t="n">
         <v>786515.9026905954</v>
       </c>
       <c r="P2" t="n">
-        <v>786967.9346977558</v>
+        <v>786515.9026905952</v>
       </c>
     </row>
     <row r="3">
@@ -26377,19 +26377,19 @@
         <v>936509.6654545122</v>
       </c>
       <c r="F3" t="n">
-        <v>8.685362155151309e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-2.399275099717973e-09</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>4.344331790858193e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925966</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26401,13 +26401,13 @@
         <v>124307.2113901372</v>
       </c>
       <c r="N3" t="n">
-        <v>2.518909260790428e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574952632</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26426,40 +26426,40 @@
         <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
-        <v>5069.915760662893</v>
+        <v>5069.915760662911</v>
       </c>
       <c r="F4" t="n">
-        <v>5069.915760662845</v>
+        <v>5069.915760662962</v>
       </c>
       <c r="G4" t="n">
-        <v>5069.915760663212</v>
+        <v>5069.915760662952</v>
       </c>
       <c r="H4" t="n">
-        <v>5069.915760663229</v>
+        <v>5069.915760662916</v>
       </c>
       <c r="I4" t="n">
-        <v>5069.91576066322</v>
+        <v>5069.915760662916</v>
       </c>
       <c r="J4" t="n">
-        <v>5069.915760662971</v>
+        <v>5069.915760662916</v>
       </c>
       <c r="K4" t="n">
         <v>5069.915760662918</v>
       </c>
       <c r="L4" t="n">
-        <v>5069.91576066292</v>
+        <v>5069.915760662916</v>
       </c>
       <c r="M4" t="n">
-        <v>5069.91576066286</v>
+        <v>5069.915760662916</v>
       </c>
       <c r="N4" t="n">
-        <v>5069.915760662904</v>
+        <v>5069.915760662969</v>
       </c>
       <c r="O4" t="n">
-        <v>5069.915760662903</v>
+        <v>5069.915760662916</v>
       </c>
       <c r="P4" t="n">
-        <v>4457.648636658128</v>
+        <v>5069.915760662916</v>
       </c>
     </row>
     <row r="5">
@@ -26475,13 +26475,13 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>100930.0394572385</v>
       </c>
       <c r="F5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="G5" t="n">
         <v>100930.0394572385</v>
@@ -26490,7 +26490,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572384</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="J5" t="n">
         <v>100930.0394572385</v>
@@ -26502,7 +26502,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="M5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="N5" t="n">
         <v>100930.0394572385</v>
@@ -26511,7 +26511,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100930.0394572385</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-64517.82805270734</v>
+        <v>-64517.82805270745</v>
       </c>
       <c r="C6" t="n">
+        <v>525450.0511618372</v>
+      </c>
+      <c r="D6" t="n">
         <v>525450.0511618369</v>
       </c>
-      <c r="D6" t="n">
-        <v>525450.0511618372</v>
-      </c>
       <c r="E6" t="n">
-        <v>-255993.7179818185</v>
+        <v>-256352.6878004615</v>
       </c>
       <c r="F6" t="n">
-        <v>680515.9474726936</v>
+        <v>680156.9776540508</v>
       </c>
       <c r="G6" t="n">
-        <v>680515.9474726971</v>
+        <v>680156.9776540507</v>
       </c>
       <c r="H6" t="n">
-        <v>680515.9474726927</v>
+        <v>680156.9776540508</v>
       </c>
       <c r="I6" t="n">
-        <v>680515.947472693</v>
+        <v>680156.9776540507</v>
       </c>
       <c r="J6" t="n">
-        <v>504092.7282800972</v>
+        <v>503733.7584614579</v>
       </c>
       <c r="K6" t="n">
-        <v>680515.9474726939</v>
+        <v>680156.9776540507</v>
       </c>
       <c r="L6" t="n">
-        <v>680515.9474726939</v>
+        <v>680156.9776540506</v>
       </c>
       <c r="M6" t="n">
-        <v>556208.7360825567</v>
+        <v>555849.7662639137</v>
       </c>
       <c r="N6" t="n">
-        <v>680515.9474726936</v>
+        <v>680156.9776540508</v>
       </c>
       <c r="O6" t="n">
-        <v>680515.947472694</v>
+        <v>680156.9776540509</v>
       </c>
       <c r="P6" t="n">
-        <v>674751.5429834753</v>
+        <v>680156.9776540508</v>
       </c>
     </row>
   </sheetData>
@@ -26727,7 +26727,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.430414738572741e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26740,10 +26740,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26752,13 +26752,13 @@
         <v>1358.041048716386</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716381</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716381</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="I3" t="n">
-        <v>1358.041048716381</v>
+        <v>1358.041048716386</v>
       </c>
       <c r="J3" t="n">
         <v>1358.041048716386</v>
@@ -26779,7 +26779,7 @@
         <v>1358.041048716386</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716386</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>5.430414738572741e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26943,7 +26943,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.186646183614044e-13</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26974,7 +26974,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>-3.664534096316332e-12</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>5.002220859751105e-12</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26995,13 +26995,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.93445162528792</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405321</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405325</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5.430414738572741e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405321</v>
+        <v>498.8170791405322</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>99.10841501723553</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>248.9368935928125</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>108.0356158611579</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,25 +27581,25 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>146.6290191212927</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27621,22 +27621,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0.5718388177793088</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>7.21478561355292</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27788,16 +27788,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>67.40792741756165</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>109.4232757891164</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27833,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24.518232395935</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27861,19 +27861,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>2.496509910248562</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>173.666378350209</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28028,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,19 +28067,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>157.4983735401876</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28335,16 +28335,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-5.430414738572741e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>-5.430414738572741e-14</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-5.430414738572741e-14</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="H14" t="n">
-        <v>-5.430414738572741e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28392,7 +28392,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>-1.302207996606489e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28632,7 +28632,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>-2.82512698096743e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29985,22 +29985,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30039,22 +30039,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>-1.285915741704982e-12</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -30231,7 +30231,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31837,22 +31837,22 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>306.4674191928274</v>
       </c>
       <c r="N12" t="n">
-        <v>211.3473190369985</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
         <v>694.9967242426205</v>
@@ -31861,7 +31861,7 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32071,43 +32071,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M15" t="n">
-        <v>293.7647843155075</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32153,7 +32153,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32162,16 +32162,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32183,7 +32183,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377406</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122262</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704051</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874047</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830404</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364232</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293272</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229572</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086917</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687494</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148584</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R17" t="n">
-        <v>342.942898598715</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854252</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.8987927266571</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4367569201901924</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540894</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.2113810308818</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735807</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745701</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504274</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927609</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426179</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P18" t="n">
-        <v>195.1793561990945</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.2575834086214</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821088</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013747</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291834</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548559</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284898</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273326</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900875</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640605</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265007</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>374.752540541686</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465949</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282413</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561735</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860855</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851312</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551965</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704638</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377406</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122262</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704051</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874047</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830404</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364232</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293272</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229572</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086917</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687494</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148584</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R20" t="n">
-        <v>342.942898598715</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854252</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.8987927266571</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4367569201901924</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540894</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.2113810308818</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735807</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>461.8454371111355</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745701</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504274</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927609</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426179</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P21" t="n">
-        <v>195.1793561990935</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.2575834086214</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821088</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013747</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291834</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548559</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284898</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273326</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900875</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640605</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265007</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>374.752540541686</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465949</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282413</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561735</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860855</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851312</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551965</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704638</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377406</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122262</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704051</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874047</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830404</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364232</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293272</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229572</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086917</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687494</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148584</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R23" t="n">
-        <v>342.942898598715</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854252</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T23" t="n">
-        <v>23.8987927266571</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4367569201901924</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540894</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H24" t="n">
-        <v>28.2113810308818</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>275.9770021735807</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K24" t="n">
-        <v>471.6886536848206</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>306.4674191928401</v>
+        <v>640.3146339032915</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927609</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426179</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982433</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286938</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.2575834086214</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821088</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013747</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291834</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H25" t="n">
-        <v>21.77318271548559</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284898</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273326</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900875</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640605</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265007</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N25" t="n">
-        <v>374.752540541686</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465949</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282413</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561735</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R25" t="n">
-        <v>110.1126397860855</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851312</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T25" t="n">
-        <v>10.46359496551965</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704638</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33022,13 +33022,13 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K27" t="n">
-        <v>348.1857632660258</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>634.2436048745724</v>
@@ -33037,16 +33037,16 @@
         <v>740.1323715504301</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927637</v>
+        <v>163.164982497874</v>
       </c>
       <c r="O27" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33259,19 +33259,19 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I30" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>140.7787756596064</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>634.2436048745724</v>
+        <v>462.5583779166507</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N30" t="n">
         <v>759.7214730927637</v>
@@ -33280,13 +33280,13 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P30" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R30" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.2575834086216</v>
@@ -33499,16 +33499,16 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>576.0147188438584</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504301</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>759.7214730927637</v>
@@ -33517,13 +33517,13 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q33" t="n">
         <v>372.8719498286952</v>
       </c>
       <c r="R33" t="n">
-        <v>181.3625385436713</v>
+        <v>148.1708788505385</v>
       </c>
       <c r="S33" t="n">
         <v>54.2575834086216</v>
@@ -33739,10 +33739,10 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>271.6268178754091</v>
       </c>
       <c r="M36" t="n">
         <v>740.1323715504301</v>
@@ -33751,16 +33751,16 @@
         <v>759.7214730927637</v>
       </c>
       <c r="O36" t="n">
-        <v>649.4704730892261</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>181.3625385436713</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.2575834086216</v>
@@ -33885,46 +33885,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M38" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S38" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U38" t="n">
         <v>0.436756920190194</v>
@@ -33967,43 +33967,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J39" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>197.9968599060576</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P39" t="n">
-        <v>159.4963216193744</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U39" t="n">
         <v>0.1921756201013754</v>
@@ -34049,7 +34049,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J40" t="n">
         <v>173.1391022273333</v>
@@ -34058,16 +34058,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P40" t="n">
         <v>296.1865264282424</v>
@@ -34079,7 +34079,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T40" t="n">
         <v>10.46359496551969</v>
@@ -34122,46 +34122,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M41" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S41" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U41" t="n">
         <v>0.436756920190194</v>
@@ -34204,10 +34204,10 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>275.9770021735818</v>
@@ -34216,31 +34216,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504302</v>
+        <v>640.3146339032915</v>
       </c>
       <c r="N42" t="n">
-        <v>679.8824277163418</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R42" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U42" t="n">
         <v>0.1921756201013754</v>
@@ -34286,7 +34286,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J43" t="n">
         <v>173.1391022273333</v>
@@ -34295,16 +34295,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P43" t="n">
         <v>296.1865264282424</v>
@@ -34316,7 +34316,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T43" t="n">
         <v>10.46359496551969</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.436756920190194</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>306.467419192828</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P45" t="n">
-        <v>390.1398273256871</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013754</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291843</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273333</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282424</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561742</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551969</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704643</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116794</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262123</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,19 +35260,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607202</v>
+        <v>333.6317139898107</v>
       </c>
       <c r="K11" t="n">
         <v>474.3741250380626</v>
@@ -35433,7 +35433,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>178.6700086136732</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>164.3333852708091</v>
       </c>
       <c r="N12" t="n">
-        <v>80.00560695366522</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
         <v>552.4004797981761</v>
@@ -35509,7 +35509,7 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>418.5673812695019</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M15" t="n">
-        <v>151.6307503934892</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35813,19 +35813,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>282.3190661607184</v>
+        <v>333.631713989811</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380598</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664359</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020545</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263662</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>741.072280616122</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134798</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404089</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845829</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.139375506914</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946959</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>597.998337628409</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094276</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981735</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P18" t="n">
-        <v>61.20494878476423</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211065984</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642047</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L19" t="n">
-        <v>391.6786041243766</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883413</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209146</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606346</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931348</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044791</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607184</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380598</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664359</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020545</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263662</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>689.759632787005</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P20" t="n">
-        <v>605.157040442597</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404089</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845829</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.139375506914</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>324.0039981367765</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946959</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>597.998337628409</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094276</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981735</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P21" t="n">
-        <v>61.20494878476331</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211065984</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642047</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L22" t="n">
-        <v>391.6786041243766</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883413</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209146</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606346</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931348</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044791</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607184</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380598</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L23" t="n">
-        <v>677.0902038955522</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020545</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N23" t="n">
-        <v>744.7323009263662</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O23" t="n">
-        <v>689.759632787005</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134798</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404089</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845829</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>149.139375506914</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K24" t="n">
-        <v>333.8472147104616</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>164.3333852708217</v>
+        <v>498.1805999812731</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094276</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981735</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P24" t="n">
-        <v>423.821735783913</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426723</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211065984</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642047</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L25" t="n">
-        <v>391.6786041243766</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883413</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209146</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606346</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931348</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044791</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36600,10 +36600,10 @@
         <v>474.3741250380625</v>
       </c>
       <c r="L26" t="n">
-        <v>625.777556066439</v>
+        <v>677.09020389553</v>
       </c>
       <c r="M26" t="n">
-        <v>779.6000841311491</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N26" t="n">
         <v>744.7323009263698</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K27" t="n">
-        <v>210.3443242916669</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>495.6892250946982</v>
@@ -36685,16 +36685,16 @@
         <v>597.9983376284117</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094305</v>
+        <v>31.82327041454071</v>
       </c>
       <c r="O27" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36907,19 +36907,19 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>13.94114899293971</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>495.6892250946982</v>
+        <v>324.0039981367765</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N30" t="n">
         <v>628.3797610094305</v>
@@ -36928,13 +36928,13 @@
         <v>552.400479798176</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R30" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37086,13 +37086,13 @@
         <v>689.7596327870084</v>
       </c>
       <c r="P32" t="n">
-        <v>605.157040442574</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q32" t="n">
         <v>367.2547334404111</v>
       </c>
       <c r="R32" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>437.4603390639843</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284117</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>628.3797610094305</v>
@@ -37165,13 +37165,13 @@
         <v>552.400479798176</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q33" t="n">
         <v>232.8901757426737</v>
       </c>
       <c r="R33" t="n">
-        <v>35.6830345797074</v>
+        <v>2.491374886574594</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37320,7 +37320,7 @@
         <v>744.7323009263698</v>
       </c>
       <c r="O35" t="n">
-        <v>741.0722806161015</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P35" t="n">
         <v>553.8443926134828</v>
@@ -37329,7 +37329,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>133.0724380955349</v>
       </c>
       <c r="M36" t="n">
         <v>597.9983376284117</v>
@@ -37399,16 +37399,16 @@
         <v>628.3797610094305</v>
       </c>
       <c r="O36" t="n">
-        <v>506.8742286447817</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>35.6830345797074</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N38" t="n">
-        <v>796.0449487554599</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P38" t="n">
-        <v>553.844392613483</v>
+        <v>605.157040442574</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J39" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>60.15542093169864</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P39" t="n">
-        <v>25.52191420504412</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K40" t="n">
         <v>262.2512393642057</v>
@@ -37709,19 +37709,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N40" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O40" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N41" t="n">
-        <v>796.0449487554599</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P41" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845842</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.049527853053121</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>149.1393755069151</v>
@@ -37864,25 +37864,25 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284119</v>
+        <v>498.1805999812731</v>
       </c>
       <c r="N42" t="n">
-        <v>548.5407156330085</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R42" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K43" t="n">
         <v>262.2512393642057</v>
@@ -37946,19 +37946,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N43" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O43" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>677.09020389553</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>164.3333852708097</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P45" t="n">
-        <v>256.1654199113569</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_6_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3969819.097834043</v>
+        <v>3971638.369525084</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9964927.035287924</v>
+        <v>9964927.035287945</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430763.7823717227</v>
+        <v>430763.7823717206</v>
       </c>
     </row>
     <row r="9">
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>244.0093818947364</v>
+        <v>244.0093818947368</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>404.3795358314629</v>
+        <v>404.3795358314633</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.165601831728317</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>164.194452239849</v>
       </c>
     </row>
     <row r="11">
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>128.7104509524665</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>22.79601828574663</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1621,10 +1621,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8432760127566</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H14" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045442</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081936</v>
       </c>
       <c r="T14" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U14" t="n">
         <v>250.9088959876463</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.0240632056145</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952161</v>
       </c>
       <c r="T15" t="n">
         <v>188.3907690366107</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>86.27179222793497</v>
+        <v>84.56702400647943</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108334</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1861,7 +1861,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H17" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045442</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060081936</v>
       </c>
       <c r="T17" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U17" t="n">
         <v>250.9088959876463</v>
@@ -1940,7 +1940,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561457</v>
+        <v>84.0240632056145</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952161</v>
       </c>
       <c r="T18" t="n">
         <v>188.3907690366107</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>103.1983720868894</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>172.5112693098319</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
@@ -2095,10 +2095,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127567</v>
       </c>
       <c r="H20" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045442</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081936</v>
       </c>
       <c r="T20" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U20" t="n">
         <v>250.9088959876463</v>
@@ -2177,7 +2177,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561457</v>
+        <v>84.0240632056145</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952161</v>
       </c>
       <c r="T21" t="n">
         <v>188.3907690366107</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>84.56702400647943</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108334</v>
       </c>
       <c r="S22" t="n">
-        <v>90.70669256541809</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T22" t="n">
         <v>217.4819944627618</v>
@@ -2335,7 +2335,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H23" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045442</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081936</v>
       </c>
       <c r="T23" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U23" t="n">
         <v>250.9088959876463</v>
@@ -2414,7 +2414,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561457</v>
+        <v>84.0240632056145</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952161</v>
       </c>
       <c r="T24" t="n">
         <v>188.3907690366107</v>
@@ -2493,7 +2493,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>131.6267707433221</v>
+        <v>64.44601915224376</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108334</v>
       </c>
       <c r="S25" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T25" t="n">
         <v>217.4819944627618</v>
@@ -2572,7 +2572,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H26" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045442</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081936</v>
       </c>
       <c r="T26" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U26" t="n">
         <v>250.9088959876463</v>
@@ -2651,7 +2651,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561457</v>
+        <v>84.0240632056145</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952161</v>
       </c>
       <c r="T27" t="n">
         <v>188.3907690366107</v>
@@ -2730,7 +2730,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>64.44601915223836</v>
+        <v>64.44601915224378</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108334</v>
       </c>
       <c r="S28" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2809,7 +2809,7 @@
         <v>409.8432760127576</v>
       </c>
       <c r="H29" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045442</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081936</v>
       </c>
       <c r="T29" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U29" t="n">
         <v>250.9088959876463</v>
@@ -2888,7 +2888,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561457</v>
+        <v>84.0240632056145</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952161</v>
       </c>
       <c r="T30" t="n">
         <v>188.3907690366107</v>
@@ -2952,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>91.23885045891774</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>64.44601915223836</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108334</v>
       </c>
       <c r="S31" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T31" t="n">
         <v>217.4819944627618</v>
@@ -3189,22 +3189,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>105.3798824585327</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>64.44601915223836</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>23.94516103140406</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>64.44601915223836</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.338488358459</v>
@@ -3511,7 +3511,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722607</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3559,7 +3559,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876452</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3672,7 +3672,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5420528771669</v>
@@ -3720,7 +3720,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V40" t="n">
-        <v>52.67509507321164</v>
+        <v>198.0961430961428</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>23.57530571412365</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>105.3798824585327</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4137,25 +4137,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>95.72311553618471</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>2.119387955707482</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4330,7 +4330,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4564,7 +4564,7 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4585,19 +4585,19 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U5" t="n">
         <v>2450.674967892226</v>
@@ -4643,7 +4643,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
@@ -4716,16 +4716,16 @@
         <v>154.8539665087374</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1589.347031634718</v>
+        <v>1589.347031634719</v>
       </c>
       <c r="C8" t="n">
         <v>1220.384514694307</v>
       </c>
       <c r="D8" t="n">
-        <v>862.1188160875561</v>
+        <v>862.1188160875565</v>
       </c>
       <c r="E8" t="n">
-        <v>476.3305634893118</v>
+        <v>476.3305634893123</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
@@ -4816,28 +4816,28 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
         <v>2366.086203674652</v>
@@ -4880,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4938,7 +4938,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>211.6913543878343</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="C10" t="n">
         <v>211.6913543878343</v>
@@ -4956,13 +4956,13 @@
         <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5001,13 +5001,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>217.9192350259437</v>
+        <v>562.2760021459809</v>
       </c>
     </row>
     <row r="11">
@@ -5029,7 +5029,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G11" t="n">
         <v>380.2757138127629</v>
@@ -5041,7 +5041,7 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>424.1437450015196</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K11" t="n">
         <v>893.7741287892015</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.9184063975742</v>
+        <v>784.5128849845607</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9822234696674</v>
+        <v>615.5767020566539</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8655840573316</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9524904749385</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0625429770282</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G13" t="n">
-        <v>93.84834815160703</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H13" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I13" t="n">
         <v>93.84834815160703</v>
@@ -5226,25 +5226,25 @@
         <v>2361.553154294196</v>
       </c>
       <c r="S13" t="n">
-        <v>2361.553154294196</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T13" t="n">
-        <v>2338.526873197482</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.450659512209</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.766171306322</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.349001269361</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.359450371344</v>
+        <v>1186.953928958331</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.566871227814</v>
+        <v>966.1613498148005</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D14" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E14" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H14" t="n">
         <v>93.84834815160703</v>
@@ -5278,28 +5278,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>373.3442236507199</v>
+        <v>424.1437450015064</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287891897</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294966</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234006</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151114</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610254</v>
       </c>
       <c r="P14" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297604</v>
       </c>
       <c r="Q14" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R14" t="n">
         <v>4692.417407580351</v>
@@ -5323,7 +5323,7 @@
         <v>3095.000365871303</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="15">
@@ -5342,10 +5342,10 @@
         <v>620.2734024870304</v>
       </c>
       <c r="E15" t="n">
-        <v>461.0359474815749</v>
+        <v>461.0359474815748</v>
       </c>
       <c r="F15" t="n">
-        <v>314.5013895084599</v>
+        <v>314.5013895084598</v>
       </c>
       <c r="G15" t="n">
         <v>178.7211392683894</v>
@@ -5357,25 +5357,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J15" t="n">
-        <v>241.4963299034529</v>
+        <v>241.4963299034536</v>
       </c>
       <c r="K15" t="n">
-        <v>572.0050724668117</v>
+        <v>572.0050724668133</v>
       </c>
       <c r="L15" t="n">
-        <v>1062.737405310563</v>
+        <v>572.0050724668133</v>
       </c>
       <c r="M15" t="n">
-        <v>1654.75575956269</v>
+        <v>734.6951238849074</v>
       </c>
       <c r="N15" t="n">
-        <v>2276.851722962027</v>
+        <v>1356.791087284245</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.812354695766</v>
+        <v>1903.667562284441</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710518</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.812354695766</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>495.0957149476001</v>
+        <v>495.0957149476055</v>
       </c>
       <c r="C16" t="n">
-        <v>495.0957149476001</v>
+        <v>326.1595320196986</v>
       </c>
       <c r="D16" t="n">
-        <v>495.0957149476001</v>
+        <v>326.1595320196986</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9524904749385</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0625429770282</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G16" t="n">
         <v>93.84834815160703</v>
@@ -5436,52 +5436,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J16" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411613</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117255</v>
       </c>
       <c r="L16" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948605</v>
       </c>
       <c r="M16" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139321</v>
       </c>
       <c r="N16" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931028</v>
       </c>
       <c r="O16" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946058</v>
       </c>
       <c r="P16" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782264</v>
       </c>
       <c r="Q16" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335699</v>
       </c>
       <c r="R16" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294201</v>
       </c>
       <c r="S16" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033131</v>
       </c>
       <c r="T16" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747514</v>
       </c>
       <c r="U16" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.62796806224</v>
       </c>
       <c r="V16" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.943479856353</v>
       </c>
       <c r="W16" t="n">
-        <v>1125.526309819387</v>
+        <v>1125.526309819393</v>
       </c>
       <c r="X16" t="n">
-        <v>897.5367589213699</v>
+        <v>897.5367589213754</v>
       </c>
       <c r="Y16" t="n">
-        <v>676.7441797778398</v>
+        <v>676.7441797778453</v>
       </c>
     </row>
     <row r="17">
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C17" t="n">
         <v>1949.298676890959</v>
@@ -5503,10 +5503,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H17" t="n">
         <v>93.84834815160703</v>
@@ -5515,52 +5515,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>424.14374500152</v>
+        <v>373.3442236507209</v>
       </c>
       <c r="K17" t="n">
-        <v>893.7741287892018</v>
+        <v>842.9746074384043</v>
       </c>
       <c r="L17" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944181</v>
       </c>
       <c r="M17" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.49894988322</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800328</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259469</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946818</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R17" t="n">
         <v>4692.417407580351</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T17" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U17" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V17" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W17" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X17" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="18">
@@ -5579,10 +5579,10 @@
         <v>620.2734024870304</v>
       </c>
       <c r="E18" t="n">
-        <v>461.0359474815749</v>
+        <v>461.0359474815748</v>
       </c>
       <c r="F18" t="n">
-        <v>314.5013895084599</v>
+        <v>314.5013895084598</v>
       </c>
       <c r="G18" t="n">
         <v>178.7211392683894</v>
@@ -5594,22 +5594,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>241.4963299034529</v>
+        <v>241.4963299034536</v>
       </c>
       <c r="K18" t="n">
-        <v>572.0050724668117</v>
+        <v>241.4963299034536</v>
       </c>
       <c r="L18" t="n">
-        <v>1062.737405310563</v>
+        <v>373.2380436180259</v>
       </c>
       <c r="M18" t="n">
-        <v>1654.75575956269</v>
+        <v>965.2563978701551</v>
       </c>
       <c r="N18" t="n">
-        <v>2276.851722962027</v>
+        <v>1587.352361269493</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.812354695766</v>
+        <v>2134.228836269689</v>
       </c>
       <c r="P18" t="n">
         <v>2553.812354695766</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>495.0957149476001</v>
+        <v>571.8714428665046</v>
       </c>
       <c r="C19" t="n">
-        <v>495.0957149476001</v>
+        <v>402.9352599385977</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9790755352643</v>
+        <v>402.9352599385977</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7382956495174</v>
+        <v>402.9352599385977</v>
       </c>
       <c r="F19" t="n">
-        <v>93.84834815160703</v>
+        <v>402.9352599385977</v>
       </c>
       <c r="G19" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H19" t="n">
         <v>93.84834815160703</v>
@@ -5673,52 +5673,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411613</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117255</v>
       </c>
       <c r="L19" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948605</v>
       </c>
       <c r="M19" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139321</v>
       </c>
       <c r="N19" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931028</v>
       </c>
       <c r="O19" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946058</v>
       </c>
       <c r="P19" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782264</v>
       </c>
       <c r="Q19" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335699</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335699</v>
       </c>
       <c r="S19" t="n">
-        <v>2178.382964033126</v>
+        <v>2255.15869195203</v>
       </c>
       <c r="T19" t="n">
-        <v>1958.704181747508</v>
+        <v>2035.479909666413</v>
       </c>
       <c r="U19" t="n">
-        <v>1669.627968062235</v>
+        <v>1746.403695981139</v>
       </c>
       <c r="V19" t="n">
-        <v>1414.943479856348</v>
+        <v>1491.719207775252</v>
       </c>
       <c r="W19" t="n">
-        <v>1125.526309819387</v>
+        <v>1202.302037738292</v>
       </c>
       <c r="X19" t="n">
-        <v>897.5367589213699</v>
+        <v>974.3124868402745</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.7441797778398</v>
+        <v>753.5199076967443</v>
       </c>
     </row>
     <row r="20">
@@ -5734,16 +5734,16 @@
         <v>1949.298676890958</v>
       </c>
       <c r="D20" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E20" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H20" t="n">
         <v>93.84834815160703</v>
@@ -5752,28 +5752,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J20" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507209</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074384018</v>
+        <v>893.7741287891897</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944176</v>
+        <v>1513.293909294966</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234006</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151114</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610254</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297604</v>
       </c>
       <c r="Q20" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580351</v>
@@ -5816,10 +5816,10 @@
         <v>620.2734024870304</v>
       </c>
       <c r="E21" t="n">
-        <v>461.0359474815749</v>
+        <v>461.0359474815748</v>
       </c>
       <c r="F21" t="n">
-        <v>314.5013895084599</v>
+        <v>314.5013895084598</v>
       </c>
       <c r="G21" t="n">
         <v>178.7211392683894</v>
@@ -5831,25 +5831,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
-        <v>241.4963299034529</v>
+        <v>241.4963299034536</v>
       </c>
       <c r="K21" t="n">
-        <v>562.2602880588616</v>
+        <v>572.0050724668133</v>
       </c>
       <c r="L21" t="n">
-        <v>562.2602880588616</v>
+        <v>1062.737405310566</v>
       </c>
       <c r="M21" t="n">
-        <v>1154.278642310989</v>
+        <v>1654.755759562695</v>
       </c>
       <c r="N21" t="n">
-        <v>1776.374605710325</v>
+        <v>2276.851722962033</v>
       </c>
       <c r="O21" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P21" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.812354695766</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>654.5023284669179</v>
+        <v>495.0957149476055</v>
       </c>
       <c r="C22" t="n">
-        <v>485.566145539011</v>
+        <v>326.1595320196986</v>
       </c>
       <c r="D22" t="n">
-        <v>485.566145539011</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="E22" t="n">
-        <v>485.566145539011</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F22" t="n">
-        <v>485.566145539011</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G22" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H22" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I22" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411613</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117255</v>
       </c>
       <c r="L22" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948605</v>
       </c>
       <c r="M22" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139321</v>
       </c>
       <c r="N22" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931028</v>
       </c>
       <c r="O22" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946058</v>
       </c>
       <c r="P22" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782264</v>
       </c>
       <c r="Q22" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335699</v>
       </c>
       <c r="R22" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294201</v>
       </c>
       <c r="S22" t="n">
-        <v>2337.789577552444</v>
+        <v>2178.382964033131</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.110795266826</v>
+        <v>1958.704181747514</v>
       </c>
       <c r="U22" t="n">
-        <v>1829.034581581553</v>
+        <v>1669.62796806224</v>
       </c>
       <c r="V22" t="n">
-        <v>1574.350093375666</v>
+        <v>1414.943479856353</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.932923338705</v>
+        <v>1125.526309819393</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.943372440688</v>
+        <v>897.5367589213754</v>
       </c>
       <c r="Y22" t="n">
-        <v>836.1507932971576</v>
+        <v>676.7441797778453</v>
       </c>
     </row>
     <row r="23">
@@ -5977,10 +5977,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H23" t="n">
         <v>93.84834815160703</v>
@@ -5989,28 +5989,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507209</v>
       </c>
       <c r="K23" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384043</v>
       </c>
       <c r="L23" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944181</v>
       </c>
       <c r="M23" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.49894988322</v>
       </c>
       <c r="N23" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800328</v>
       </c>
       <c r="O23" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610254</v>
       </c>
       <c r="P23" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297604</v>
       </c>
       <c r="Q23" t="n">
-        <v>4515.534099052813</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R23" t="n">
         <v>4692.417407580351</v>
@@ -6053,10 +6053,10 @@
         <v>620.2734024870304</v>
       </c>
       <c r="E24" t="n">
-        <v>461.0359474815749</v>
+        <v>461.0359474815748</v>
       </c>
       <c r="F24" t="n">
-        <v>314.5013895084599</v>
+        <v>314.5013895084598</v>
       </c>
       <c r="G24" t="n">
         <v>178.7211392683894</v>
@@ -6068,25 +6068,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>241.4963299034529</v>
+        <v>241.4963299034536</v>
       </c>
       <c r="K24" t="n">
-        <v>241.4963299034529</v>
+        <v>241.4963299034536</v>
       </c>
       <c r="L24" t="n">
-        <v>241.4963299034529</v>
+        <v>373.2380436180259</v>
       </c>
       <c r="M24" t="n">
-        <v>734.6951238849133</v>
+        <v>965.2563978701551</v>
       </c>
       <c r="N24" t="n">
-        <v>1356.791087284249</v>
+        <v>1587.352361269493</v>
       </c>
       <c r="O24" t="n">
-        <v>1903.667562284444</v>
+        <v>2134.228836269689</v>
       </c>
       <c r="P24" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.812354695766</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>562.9550599890988</v>
+        <v>495.0957149476055</v>
       </c>
       <c r="C25" t="n">
-        <v>394.0188770611919</v>
+        <v>326.1595320196986</v>
       </c>
       <c r="D25" t="n">
-        <v>394.0188770611919</v>
+        <v>326.1595320196986</v>
       </c>
       <c r="E25" t="n">
-        <v>394.0188770611919</v>
+        <v>326.1595320196986</v>
       </c>
       <c r="F25" t="n">
-        <v>394.0188770611919</v>
+        <v>326.1595320196986</v>
       </c>
       <c r="G25" t="n">
-        <v>226.8046822357708</v>
+        <v>158.9453371942775</v>
       </c>
       <c r="H25" t="n">
         <v>93.84834815160703</v>
@@ -6147,52 +6147,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411613</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117255</v>
       </c>
       <c r="L25" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948605</v>
       </c>
       <c r="M25" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139321</v>
       </c>
       <c r="N25" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931028</v>
       </c>
       <c r="O25" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946058</v>
       </c>
       <c r="P25" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782264</v>
       </c>
       <c r="Q25" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335699</v>
       </c>
       <c r="R25" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294201</v>
       </c>
       <c r="S25" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033131</v>
       </c>
       <c r="T25" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747514</v>
       </c>
       <c r="U25" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.62796806224</v>
       </c>
       <c r="V25" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856353</v>
       </c>
       <c r="W25" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819393</v>
       </c>
       <c r="X25" t="n">
-        <v>965.3961039628687</v>
+        <v>897.5367589213754</v>
       </c>
       <c r="Y25" t="n">
-        <v>744.6035248193385</v>
+        <v>676.7441797778453</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831368</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890956</v>
       </c>
       <c r="D26" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284206</v>
       </c>
       <c r="E26" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685962</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963548</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127618</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160593</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507209</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384043</v>
       </c>
       <c r="L26" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944181</v>
       </c>
       <c r="M26" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.49894988322</v>
       </c>
       <c r="N26" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151113</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610253</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297603</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403611</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.41740758035</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347199</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.740996026518</v>
       </c>
       <c r="U26" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746066</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402495</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132381</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871301</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.86103389549</v>
       </c>
     </row>
     <row r="27">
@@ -6290,40 +6290,40 @@
         <v>620.2734024870304</v>
       </c>
       <c r="E27" t="n">
-        <v>461.0359474815749</v>
+        <v>461.0359474815748</v>
       </c>
       <c r="F27" t="n">
-        <v>314.5013895084599</v>
+        <v>314.5013895084597</v>
       </c>
       <c r="G27" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683893</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I27" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J27" t="n">
-        <v>242.5353624779755</v>
+        <v>241.4963299034535</v>
       </c>
       <c r="K27" t="n">
-        <v>242.5353624779755</v>
+        <v>241.4963299034535</v>
       </c>
       <c r="L27" t="n">
-        <v>733.2676953217267</v>
+        <v>732.2286627472062</v>
       </c>
       <c r="M27" t="n">
-        <v>1325.286049573854</v>
+        <v>1324.247016999335</v>
       </c>
       <c r="N27" t="n">
-        <v>1356.791087284249</v>
+        <v>1356.791087284245</v>
       </c>
       <c r="O27" t="n">
-        <v>1903.667562284444</v>
+        <v>1903.667562284441</v>
       </c>
       <c r="P27" t="n">
-        <v>2323.25108071052</v>
+        <v>2323.251080710518</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.812354695766</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>495.0957149476001</v>
+        <v>495.0957149476055</v>
       </c>
       <c r="C28" t="n">
-        <v>326.1595320196932</v>
+        <v>326.1595320196986</v>
       </c>
       <c r="D28" t="n">
-        <v>326.1595320196932</v>
+        <v>326.1595320196986</v>
       </c>
       <c r="E28" t="n">
-        <v>326.1595320196932</v>
+        <v>326.1595320196986</v>
       </c>
       <c r="F28" t="n">
-        <v>326.1595320196932</v>
+        <v>326.1595320196986</v>
       </c>
       <c r="G28" t="n">
-        <v>158.945337194272</v>
+        <v>158.9453371942775</v>
       </c>
       <c r="H28" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I28" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="J28" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411613</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117255</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948605</v>
       </c>
       <c r="M28" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139321</v>
       </c>
       <c r="N28" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931028</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946058</v>
       </c>
       <c r="P28" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782264</v>
       </c>
       <c r="Q28" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335699</v>
       </c>
       <c r="R28" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294201</v>
       </c>
       <c r="S28" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033131</v>
       </c>
       <c r="T28" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747514</v>
       </c>
       <c r="U28" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.62796806224</v>
       </c>
       <c r="V28" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.943479856353</v>
       </c>
       <c r="W28" t="n">
-        <v>1125.526309819387</v>
+        <v>1125.526309819393</v>
       </c>
       <c r="X28" t="n">
-        <v>897.5367589213699</v>
+        <v>897.5367589213754</v>
       </c>
       <c r="Y28" t="n">
-        <v>676.7441797778398</v>
+        <v>676.7441797778453</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127628</v>
       </c>
       <c r="H29" t="n">
         <v>93.84834815160703</v>
@@ -6463,28 +6463,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507209</v>
       </c>
       <c r="K29" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074384043</v>
       </c>
       <c r="L29" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944181</v>
       </c>
       <c r="M29" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.49894988322</v>
       </c>
       <c r="N29" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800328</v>
       </c>
       <c r="O29" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259469</v>
       </c>
       <c r="P29" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946818</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052827</v>
       </c>
       <c r="R29" t="n">
         <v>4692.417407580351</v>
@@ -6527,10 +6527,10 @@
         <v>620.2734024870304</v>
       </c>
       <c r="E30" t="n">
-        <v>461.0359474815749</v>
+        <v>461.0359474815748</v>
       </c>
       <c r="F30" t="n">
-        <v>314.5013895084599</v>
+        <v>314.5013895084598</v>
       </c>
       <c r="G30" t="n">
         <v>178.7211392683894</v>
@@ -6542,25 +6542,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>241.4963299034529</v>
+        <v>241.4963299034536</v>
       </c>
       <c r="K30" t="n">
-        <v>241.4963299034529</v>
+        <v>241.4963299034536</v>
       </c>
       <c r="L30" t="n">
-        <v>562.2602880588616</v>
+        <v>241.4963299034536</v>
       </c>
       <c r="M30" t="n">
-        <v>1154.278642310989</v>
+        <v>734.6951238849074</v>
       </c>
       <c r="N30" t="n">
-        <v>1776.374605710325</v>
+        <v>1356.791087284245</v>
       </c>
       <c r="O30" t="n">
-        <v>2323.25108071052</v>
+        <v>1903.667562284441</v>
       </c>
       <c r="P30" t="n">
-        <v>2323.25108071052</v>
+        <v>2323.251080710518</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.812354695766</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>495.0957149476001</v>
+        <v>495.0957149476055</v>
       </c>
       <c r="C31" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385977</v>
       </c>
       <c r="D31" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385977</v>
       </c>
       <c r="E31" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385977</v>
       </c>
       <c r="F31" t="n">
-        <v>326.1595320196932</v>
+        <v>402.9352599385977</v>
       </c>
       <c r="G31" t="n">
-        <v>158.945337194272</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H31" t="n">
         <v>93.84834815160703</v>
@@ -6621,52 +6621,52 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411613</v>
       </c>
       <c r="K31" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117255</v>
       </c>
       <c r="L31" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948605</v>
       </c>
       <c r="M31" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139321</v>
       </c>
       <c r="N31" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.146473931028</v>
       </c>
       <c r="O31" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946058</v>
       </c>
       <c r="P31" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782264</v>
       </c>
       <c r="Q31" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335699</v>
       </c>
       <c r="R31" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294201</v>
       </c>
       <c r="S31" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033131</v>
       </c>
       <c r="T31" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.704181747514</v>
       </c>
       <c r="U31" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.62796806224</v>
       </c>
       <c r="V31" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.943479856353</v>
       </c>
       <c r="W31" t="n">
-        <v>1125.526309819387</v>
+        <v>1125.526309819393</v>
       </c>
       <c r="X31" t="n">
-        <v>897.5367589213699</v>
+        <v>897.5367589213754</v>
       </c>
       <c r="Y31" t="n">
-        <v>676.7441797778398</v>
+        <v>676.7441797778453</v>
       </c>
     </row>
     <row r="32">
@@ -6688,13 +6688,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G32" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I32" t="n">
         <v>93.84834815160703</v>
@@ -6782,25 +6782,25 @@
         <v>241.4963299034529</v>
       </c>
       <c r="K33" t="n">
-        <v>241.4963299034529</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L33" t="n">
-        <v>732.2286627472042</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M33" t="n">
-        <v>732.2286627472042</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N33" t="n">
-        <v>1354.32462614654</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="O33" t="n">
-        <v>1901.201101146735</v>
+        <v>2201.632234562885</v>
       </c>
       <c r="P33" t="n">
-        <v>2320.784619572811</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q33" t="n">
-        <v>2551.345893558057</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R33" t="n">
         <v>2553.812354695766</v>
@@ -6837,19 +6837,19 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C34" t="n">
-        <v>326.1595320196932</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D34" t="n">
-        <v>326.1595320196932</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E34" t="n">
-        <v>326.1595320196932</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F34" t="n">
-        <v>326.1595320196932</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G34" t="n">
-        <v>158.945337194272</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H34" t="n">
         <v>93.84834815160703</v>
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C35" t="n">
         <v>1949.298676890959</v>
@@ -6925,7 +6925,7 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G35" t="n">
         <v>380.2757138127629</v>
@@ -6973,7 +6973,7 @@
         <v>4152.297666746069</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W35" t="n">
         <v>3468.466124132384</v>
@@ -6982,7 +6982,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="36">
@@ -7019,25 +7019,25 @@
         <v>241.4963299034529</v>
       </c>
       <c r="K36" t="n">
-        <v>241.4963299034529</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L36" t="n">
-        <v>373.2380436180325</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M36" t="n">
-        <v>965.2563978701601</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="N36" t="n">
-        <v>1587.352361269496</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O36" t="n">
-        <v>2134.22883626969</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R36" t="n">
         <v>2553.812354695766</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>495.0957149476001</v>
+        <v>562.9550599890988</v>
       </c>
       <c r="C37" t="n">
-        <v>326.1595320196932</v>
+        <v>538.7680286442462</v>
       </c>
       <c r="D37" t="n">
-        <v>326.1595320196932</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E37" t="n">
-        <v>326.1595320196932</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F37" t="n">
-        <v>326.1595320196932</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G37" t="n">
-        <v>158.945337194272</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H37" t="n">
         <v>93.84834815160703</v>
@@ -7119,28 +7119,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R37" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S37" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T37" t="n">
-        <v>1958.704181747508</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U37" t="n">
-        <v>1669.627968062235</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V37" t="n">
-        <v>1414.943479856348</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W37" t="n">
-        <v>1125.526309819387</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X37" t="n">
-        <v>897.5367589213699</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y37" t="n">
-        <v>676.7441797778398</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E38" t="n">
         <v>1205.244725685964</v>
@@ -7192,10 +7192,10 @@
         <v>3603.645964259458</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R38" t="n">
         <v>4692.417407580351</v>
@@ -7207,19 +7207,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X38" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>94.88738072612961</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>242.5353624779755</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K39" t="n">
-        <v>302.0892292003572</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L39" t="n">
-        <v>792.8215620441084</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M39" t="n">
-        <v>1384.839916296236</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N39" t="n">
-        <v>2006.935879695572</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O39" t="n">
         <v>2553.812354695766</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1099.422008959557</v>
+        <v>952.5320614616468</v>
       </c>
       <c r="C40" t="n">
-        <v>930.4858260316502</v>
+        <v>783.5958785337399</v>
       </c>
       <c r="D40" t="n">
-        <v>780.3691866193144</v>
+        <v>633.4792391214041</v>
       </c>
       <c r="E40" t="n">
-        <v>632.4560930369213</v>
+        <v>485.566145539011</v>
       </c>
       <c r="F40" t="n">
         <v>485.566145539011</v>
@@ -7368,16 +7368,16 @@
         <v>2072.476940608923</v>
       </c>
       <c r="V40" t="n">
-        <v>2019.269773868305</v>
+        <v>1872.379826370395</v>
       </c>
       <c r="W40" t="n">
-        <v>1729.852603831344</v>
+        <v>1582.962656333434</v>
       </c>
       <c r="X40" t="n">
-        <v>1501.863052933327</v>
+        <v>1354.973105435417</v>
       </c>
       <c r="Y40" t="n">
-        <v>1281.070473789797</v>
+        <v>1134.180526291887</v>
       </c>
     </row>
     <row r="41">
@@ -7399,13 +7399,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127627</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I41" t="n">
         <v>93.84834815160703</v>
@@ -7496,19 +7496,19 @@
         <v>241.4963299034529</v>
       </c>
       <c r="L42" t="n">
-        <v>241.4963299034529</v>
+        <v>373.2380436180325</v>
       </c>
       <c r="M42" t="n">
-        <v>734.6951238849133</v>
+        <v>965.2563978701601</v>
       </c>
       <c r="N42" t="n">
-        <v>1356.791087284249</v>
+        <v>1587.352361269496</v>
       </c>
       <c r="O42" t="n">
-        <v>1903.667562284444</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P42" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.812354695766</v>
@@ -7548,22 +7548,22 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C43" t="n">
-        <v>471.2822748323237</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D43" t="n">
-        <v>471.2822748323237</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="E43" t="n">
-        <v>323.3691812499305</v>
+        <v>347.182621365207</v>
       </c>
       <c r="F43" t="n">
-        <v>176.4792337520202</v>
+        <v>200.2926738672966</v>
       </c>
       <c r="G43" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H43" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I43" t="n">
         <v>93.84834815160703</v>
@@ -7636,13 +7636,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G44" t="n">
         <v>380.2757138127627</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I44" t="n">
         <v>93.84834815160703</v>
@@ -7654,22 +7654,22 @@
         <v>842.9746074384018</v>
       </c>
       <c r="L44" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M44" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N44" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O44" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P44" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q44" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R44" t="n">
         <v>4692.417407580351</v>
@@ -7730,22 +7730,22 @@
         <v>241.4963299034529</v>
       </c>
       <c r="K45" t="n">
-        <v>572.0050724668117</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L45" t="n">
-        <v>572.0050724668117</v>
+        <v>732.2286627472042</v>
       </c>
       <c r="M45" t="n">
-        <v>734.6951238849133</v>
+        <v>1324.247016999332</v>
       </c>
       <c r="N45" t="n">
-        <v>1356.791087284249</v>
+        <v>1946.342980398668</v>
       </c>
       <c r="O45" t="n">
-        <v>1903.667562284444</v>
+        <v>2493.219455398862</v>
       </c>
       <c r="P45" t="n">
-        <v>2323.25108071052</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.812354695766</v>
@@ -7785,22 +7785,22 @@
         <v>562.9550599890988</v>
       </c>
       <c r="C46" t="n">
-        <v>394.0188770611919</v>
+        <v>466.2650442959829</v>
       </c>
       <c r="D46" t="n">
-        <v>243.9022376488562</v>
+        <v>466.2650442959829</v>
       </c>
       <c r="E46" t="n">
-        <v>95.98914406646307</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="F46" t="n">
-        <v>93.84834815160703</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="G46" t="n">
-        <v>93.84834815160703</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I46" t="n">
         <v>93.84834815160703</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714822</v>
+        <v>321.7987081714827</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>51.31264782909039</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>51.31264782907624</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8950,7 +8950,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>51.31264782907675</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9403,7 +9403,7 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>51.31264782907618</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>51.31264782907579</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9880,13 +9880,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>51.31264782909091</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>51.31264782907522</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>51.31264782909113</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10135,7 +10135,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>51.31264782907633</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>51.31264782909125</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11302,25 +11302,25 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
         <v>51.31264782909091</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>19.90502206574584</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,10 +23466,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>194.6859761770152</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>60.1621704186342</v>
+        <v>61.86693864008974</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440888</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>43.23559055967974</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440888</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108334</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>8.827219048627001</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>64.04844901173293</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440888</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>90.63179579304087</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>8.827219048631804</v>
+        <v>76.00797063971009</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440888</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24618,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>76.00797063971555</v>
+        <v>76.00797063971008</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440888</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24840,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>76.00797063971009</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>76.00797063971555</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440888</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>43.23559055967969</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>76.00797063971555</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
         <v>81.80457674440903</v>
@@ -25314,22 +25314,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>143.3016600672238</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>76.00797063971555</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
         <v>81.80457674440903</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25560,7 +25560,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>199.4625482506164</v>
+        <v>54.04150022768519</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>143.6715153845042</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>60.16217041863425</v>
       </c>
       <c r="H43" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>71.52370556244313</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>143.3016600672238</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720368</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720368</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720368</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720368</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720368</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720368</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>629451.6440720367</v>
+        <v>629451.6440720368</v>
       </c>
     </row>
     <row r="12">
@@ -26322,40 +26322,40 @@
         <v>800515.7256176762</v>
       </c>
       <c r="E2" t="n">
+        <v>786515.9026905954</v>
+      </c>
+      <c r="F2" t="n">
+        <v>786515.9026905956</v>
+      </c>
+      <c r="G2" t="n">
+        <v>786515.9026905957</v>
+      </c>
+      <c r="H2" t="n">
+        <v>786515.9026905955</v>
+      </c>
+      <c r="I2" t="n">
+        <v>786515.9026905956</v>
+      </c>
+      <c r="J2" t="n">
+        <v>786515.9026905956</v>
+      </c>
+      <c r="K2" t="n">
+        <v>786515.9026905957</v>
+      </c>
+      <c r="L2" t="n">
         <v>786515.9026905952</v>
       </c>
-      <c r="F2" t="n">
-        <v>786515.9026905951</v>
-      </c>
-      <c r="G2" t="n">
-        <v>786515.9026905952</v>
-      </c>
-      <c r="H2" t="n">
-        <v>786515.9026905952</v>
-      </c>
-      <c r="I2" t="n">
-        <v>786515.9026905951</v>
-      </c>
-      <c r="J2" t="n">
-        <v>786515.9026905952</v>
-      </c>
-      <c r="K2" t="n">
-        <v>786515.9026905951</v>
-      </c>
-      <c r="L2" t="n">
-        <v>786515.902690595</v>
-      </c>
       <c r="M2" t="n">
-        <v>786515.9026905954</v>
+        <v>786515.9026905955</v>
       </c>
       <c r="N2" t="n">
         <v>786515.9026905954</v>
       </c>
       <c r="O2" t="n">
+        <v>786515.9026905952</v>
+      </c>
+      <c r="P2" t="n">
         <v>786515.9026905954</v>
-      </c>
-      <c r="P2" t="n">
-        <v>786515.9026905952</v>
       </c>
     </row>
     <row r="3">
@@ -26377,7 +26377,7 @@
         <v>936509.6654545122</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.156716618628707e-09</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-4.469253511827748e-10</v>
       </c>
       <c r="M3" t="n">
         <v>124307.2113901372</v>
@@ -26429,22 +26429,22 @@
         <v>5069.915760662911</v>
       </c>
       <c r="F4" t="n">
-        <v>5069.915760662962</v>
+        <v>5069.915760662782</v>
       </c>
       <c r="G4" t="n">
-        <v>5069.915760662952</v>
+        <v>5069.915760662747</v>
       </c>
       <c r="H4" t="n">
-        <v>5069.915760662916</v>
+        <v>5069.915760662781</v>
       </c>
       <c r="I4" t="n">
-        <v>5069.915760662916</v>
+        <v>5069.915760662736</v>
       </c>
       <c r="J4" t="n">
-        <v>5069.915760662916</v>
+        <v>5069.915760662729</v>
       </c>
       <c r="K4" t="n">
-        <v>5069.915760662918</v>
+        <v>5069.915760662741</v>
       </c>
       <c r="L4" t="n">
         <v>5069.915760662916</v>
@@ -26453,7 +26453,7 @@
         <v>5069.915760662916</v>
       </c>
       <c r="N4" t="n">
-        <v>5069.915760662969</v>
+        <v>5069.915760662916</v>
       </c>
       <c r="O4" t="n">
         <v>5069.915760662916</v>
@@ -26472,31 +26472,31 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>100930.0394572385</v>
       </c>
       <c r="F5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="G5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="J5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="K5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="L5" t="n">
         <v>100930.0394572385</v>
@@ -26530,40 +26530,40 @@
         <v>525450.0511618369</v>
       </c>
       <c r="E6" t="n">
-        <v>-256352.6878004615</v>
+        <v>-256029.6149636826</v>
       </c>
       <c r="F6" t="n">
-        <v>680156.9776540508</v>
+        <v>680480.0504908276</v>
       </c>
       <c r="G6" t="n">
-        <v>680156.9776540507</v>
+        <v>680480.05049083</v>
       </c>
       <c r="H6" t="n">
-        <v>680156.9776540508</v>
+        <v>680480.0504908297</v>
       </c>
       <c r="I6" t="n">
-        <v>680156.9776540507</v>
+        <v>680480.0504908299</v>
       </c>
       <c r="J6" t="n">
-        <v>503733.7584614579</v>
+        <v>504056.8312982371</v>
       </c>
       <c r="K6" t="n">
-        <v>680156.9776540507</v>
+        <v>680480.05049083</v>
       </c>
       <c r="L6" t="n">
-        <v>680156.9776540506</v>
+        <v>680480.0504908316</v>
       </c>
       <c r="M6" t="n">
-        <v>555849.7662639137</v>
+        <v>556172.8391006925</v>
       </c>
       <c r="N6" t="n">
-        <v>680156.9776540508</v>
+        <v>680480.0504908296</v>
       </c>
       <c r="O6" t="n">
-        <v>680156.9776540509</v>
+        <v>680480.0504908295</v>
       </c>
       <c r="P6" t="n">
-        <v>680156.9776540508</v>
+        <v>680480.0504908296</v>
       </c>
     </row>
   </sheetData>
@@ -26749,22 +26749,22 @@
         <v>1358.041048716386</v>
       </c>
       <c r="F3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716389</v>
       </c>
       <c r="G3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716389</v>
       </c>
       <c r="H3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716389</v>
       </c>
       <c r="I3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716389</v>
       </c>
       <c r="J3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716389</v>
       </c>
       <c r="K3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716389</v>
       </c>
       <c r="L3" t="n">
         <v>1358.041048716386</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26971,7 +26971,7 @@
         <v>980.2973844992991</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.728484105318785e-12</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26989,7 +26989,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-1.758756260423932e-12</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405321</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405321</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405322</v>
+        <v>498.8170791405321</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27672,7 +27672,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>7.21478561355292</v>
+        <v>7.214785613552465</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27864,7 +27864,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2.496509910248562</v>
+        <v>2.496509910248108</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.666378350209</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28073,13 +28073,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>54.39020111224579</v>
       </c>
     </row>
     <row r="11">
@@ -28341,7 +28341,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
     </row>
     <row r="15">
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28815,7 +28815,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -30231,7 +30231,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>1.080024958355352e-12</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377438</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122294</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704064</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874074</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830445</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364282</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293329</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229628</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086972</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687541</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148619</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.942898598717</v>
       </c>
       <c r="S14" t="n">
-        <v>124.4074789854257</v>
+        <v>124.407478985426</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665724</v>
       </c>
       <c r="U14" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901949</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540912</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088196</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735824</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>471.6886536848234</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504301</v>
+        <v>306.4674191928204</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927653</v>
       </c>
       <c r="O15" t="n">
-        <v>422.3544583169088</v>
+        <v>694.996724242622</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982466</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.871949828696</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862171</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821095</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013758</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291848</v>
       </c>
       <c r="H16" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548572</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284941</v>
       </c>
       <c r="J16" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273336</v>
       </c>
       <c r="K16" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900892</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640626</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.880357426503</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416882</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.144626646597</v>
       </c>
       <c r="P16" t="n">
-        <v>296.1865264282424</v>
+        <v>296.186526428243</v>
       </c>
       <c r="Q16" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561747</v>
       </c>
       <c r="R16" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860861</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851337</v>
       </c>
       <c r="T16" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551971</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704646</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377438</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122294</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704064</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874074</v>
       </c>
       <c r="K17" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830445</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364282</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293329</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229628</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086972</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687541</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148619</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987162</v>
+        <v>342.942898598717</v>
       </c>
       <c r="S17" t="n">
-        <v>124.4074789854257</v>
+        <v>124.407478985426</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665724</v>
       </c>
       <c r="U17" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901949</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,34 +32305,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540912</v>
       </c>
       <c r="H18" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088196</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735824</v>
       </c>
       <c r="K18" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745724</v>
+        <v>271.6268178754018</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504317</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927653</v>
       </c>
       <c r="O18" t="n">
-        <v>422.3544583169088</v>
+        <v>694.996724242622</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982466</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862171</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821095</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013758</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291848</v>
       </c>
       <c r="H19" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548572</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284941</v>
       </c>
       <c r="J19" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273336</v>
       </c>
       <c r="K19" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900892</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640626</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265021</v>
+        <v>383.880357426503</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416882</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465962</v>
+        <v>346.144626646597</v>
       </c>
       <c r="P19" t="n">
-        <v>296.1865264282424</v>
+        <v>296.186526428243</v>
       </c>
       <c r="Q19" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561747</v>
       </c>
       <c r="R19" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860861</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851337</v>
       </c>
       <c r="T19" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551971</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704646</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377438</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122294</v>
       </c>
       <c r="I20" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704064</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874074</v>
       </c>
       <c r="K20" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830445</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364282</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293329</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229628</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086972</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687541</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148619</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987162</v>
+        <v>342.942898598717</v>
       </c>
       <c r="S20" t="n">
-        <v>124.4074789854257</v>
+        <v>124.407478985426</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665724</v>
       </c>
       <c r="U20" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901949</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540912</v>
       </c>
       <c r="H21" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088196</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735824</v>
       </c>
       <c r="K21" t="n">
-        <v>461.8454371111355</v>
+        <v>471.6886536848234</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745739</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504317</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927653</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426204</v>
+        <v>422.354458316902</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862171</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821095</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013758</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291848</v>
       </c>
       <c r="H22" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548572</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284941</v>
       </c>
       <c r="J22" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273336</v>
       </c>
       <c r="K22" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900892</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640626</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265021</v>
+        <v>383.880357426503</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416882</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465962</v>
+        <v>346.144626646597</v>
       </c>
       <c r="P22" t="n">
-        <v>296.1865264282424</v>
+        <v>296.186526428243</v>
       </c>
       <c r="Q22" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561747</v>
       </c>
       <c r="R22" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860861</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851337</v>
       </c>
       <c r="T22" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551971</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704646</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377438</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122294</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704064</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874074</v>
       </c>
       <c r="K23" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830445</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364282</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293329</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229628</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086972</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687541</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148619</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987162</v>
+        <v>342.942898598717</v>
       </c>
       <c r="S23" t="n">
-        <v>124.4074789854257</v>
+        <v>124.407478985426</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665724</v>
       </c>
       <c r="U23" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901949</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540912</v>
       </c>
       <c r="H24" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088196</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735824</v>
       </c>
       <c r="K24" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>271.6268178754018</v>
       </c>
       <c r="M24" t="n">
-        <v>640.3146339032915</v>
+        <v>740.1323715504317</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927653</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426204</v>
+        <v>694.996724242622</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982466</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862171</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821095</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013758</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291848</v>
       </c>
       <c r="H25" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548572</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284941</v>
       </c>
       <c r="J25" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273336</v>
       </c>
       <c r="K25" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900892</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640626</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265021</v>
+        <v>383.880357426503</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416882</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465962</v>
+        <v>346.144626646597</v>
       </c>
       <c r="P25" t="n">
-        <v>296.1865264282424</v>
+        <v>296.186526428243</v>
       </c>
       <c r="Q25" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561747</v>
       </c>
       <c r="R25" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860861</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851337</v>
       </c>
       <c r="T25" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551971</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704646</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377438</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122294</v>
       </c>
       <c r="I26" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704064</v>
       </c>
       <c r="J26" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874074</v>
       </c>
       <c r="K26" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830445</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364282</v>
       </c>
       <c r="M26" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293329</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229628</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086972</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687541</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148619</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987162</v>
+        <v>342.942898598717</v>
       </c>
       <c r="S26" t="n">
-        <v>124.4074789854257</v>
+        <v>124.407478985426</v>
       </c>
       <c r="T26" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665724</v>
       </c>
       <c r="U26" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901949</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540912</v>
       </c>
       <c r="H27" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088196</v>
       </c>
       <c r="I27" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735824</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745739</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504317</v>
       </c>
       <c r="N27" t="n">
-        <v>163.164982497874</v>
+        <v>164.214510350919</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426204</v>
+        <v>694.996724242622</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982466</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.8719498286952</v>
+        <v>372.871949828696</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862171</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821095</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013758</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291848</v>
       </c>
       <c r="H28" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548572</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284941</v>
       </c>
       <c r="J28" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273336</v>
       </c>
       <c r="K28" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900892</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640626</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265021</v>
+        <v>383.880357426503</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416882</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465962</v>
+        <v>346.144626646597</v>
       </c>
       <c r="P28" t="n">
-        <v>296.1865264282424</v>
+        <v>296.186526428243</v>
       </c>
       <c r="Q28" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561747</v>
       </c>
       <c r="R28" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860861</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851337</v>
       </c>
       <c r="T28" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551971</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704646</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377438</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122294</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704064</v>
       </c>
       <c r="J29" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874074</v>
       </c>
       <c r="K29" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830445</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364282</v>
       </c>
       <c r="M29" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293329</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229628</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086972</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687541</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148619</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987162</v>
+        <v>342.942898598717</v>
       </c>
       <c r="S29" t="n">
-        <v>124.4074789854257</v>
+        <v>124.407478985426</v>
       </c>
       <c r="T29" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665724</v>
       </c>
       <c r="U29" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901949</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540912</v>
       </c>
       <c r="H30" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088196</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>275.9770021735818</v>
+        <v>275.9770021735824</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>462.5583779166507</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504301</v>
+        <v>640.3146339032849</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927653</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426204</v>
+        <v>694.996724242622</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982466</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286952</v>
+        <v>372.871949828696</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862171</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821095</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013758</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291848</v>
       </c>
       <c r="H31" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548572</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284941</v>
       </c>
       <c r="J31" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273336</v>
       </c>
       <c r="K31" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900892</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640626</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265021</v>
+        <v>383.880357426503</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416882</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465962</v>
+        <v>346.144626646597</v>
       </c>
       <c r="P31" t="n">
-        <v>296.1865264282424</v>
+        <v>296.186526428243</v>
       </c>
       <c r="Q31" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561747</v>
       </c>
       <c r="R31" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860861</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851337</v>
       </c>
       <c r="T31" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551971</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704646</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33502,28 +33502,28 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
         <v>634.2436048745724</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>694.9967242426204</v>
       </c>
       <c r="P33" t="n">
-        <v>557.7961431982453</v>
+        <v>256.8217267553756</v>
       </c>
       <c r="Q33" t="n">
         <v>372.8719498286952</v>
       </c>
       <c r="R33" t="n">
-        <v>148.1708788505385</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.2575834086216</v>
@@ -33739,16 +33739,16 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>271.6268178754091</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504301</v>
+        <v>403.474920527853</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>694.9967242426204</v>
@@ -33757,10 +33757,10 @@
         <v>557.7961431982453</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S36" t="n">
         <v>54.2575834086216</v>
@@ -33970,13 +33970,13 @@
         <v>28.2113810308819</v>
       </c>
       <c r="I39" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
-        <v>197.9968599060576</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L39" t="n">
         <v>634.2436048745724</v>
@@ -33988,7 +33988,7 @@
         <v>759.7214730927637</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426204</v>
+        <v>422.3544583169088</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34216,10 +34216,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>271.6268178754091</v>
       </c>
       <c r="M42" t="n">
-        <v>640.3146339032915</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N42" t="n">
         <v>759.7214730927637</v>
@@ -34231,7 +34231,7 @@
         <v>557.7961431982453</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34450,13 +34450,13 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M45" t="n">
-        <v>306.467419192828</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N45" t="n">
         <v>759.7214730927637</v>
@@ -34465,10 +34465,10 @@
         <v>694.9967242426204</v>
       </c>
       <c r="P45" t="n">
-        <v>557.7961431982453</v>
+        <v>195.1793561990821</v>
       </c>
       <c r="Q45" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34953,7 +34953,7 @@
         <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116794</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>333.6317139898107</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380626</v>
+        <v>525.686772867153</v>
       </c>
       <c r="L11" t="n">
         <v>625.7775560664393</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>333.6317139897974</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380639</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664409</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020602</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263719</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870104</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134846</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404123</v>
       </c>
       <c r="R14" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845849</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069157</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>333.8472147104644</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284117</v>
+        <v>164.3333852708021</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094321</v>
       </c>
       <c r="O15" t="n">
-        <v>279.7582138724644</v>
+        <v>552.4004797981776</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>423.8217357839163</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426745</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066086</v>
       </c>
       <c r="K16" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642063</v>
       </c>
       <c r="L16" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243788</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883436</v>
       </c>
       <c r="N16" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209169</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606366</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931365</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044803</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>333.631713989811</v>
+        <v>282.3190661607211</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380639</v>
       </c>
       <c r="L17" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664409</v>
       </c>
       <c r="M17" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020602</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263719</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870104</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134846</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404111</v>
+        <v>418.5673812694891</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845849</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069157</v>
       </c>
       <c r="K18" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946982</v>
+        <v>133.0724380955276</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284133</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094321</v>
       </c>
       <c r="O18" t="n">
-        <v>279.7582138724644</v>
+        <v>552.4004797981776</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>423.8217357839163</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066086</v>
       </c>
       <c r="K19" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642063</v>
       </c>
       <c r="L19" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243788</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883436</v>
       </c>
       <c r="N19" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209169</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606366</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931365</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044803</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607211</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380625</v>
+        <v>525.6867728671401</v>
       </c>
       <c r="L20" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664409</v>
       </c>
       <c r="M20" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020602</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263719</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870104</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134846</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404123</v>
       </c>
       <c r="R20" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845849</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069157</v>
       </c>
       <c r="K21" t="n">
-        <v>324.0039981367765</v>
+        <v>333.8472147104644</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>495.6892250946997</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284133</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094321</v>
       </c>
       <c r="O21" t="n">
-        <v>552.400479798176</v>
+        <v>279.7582138724575</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066086</v>
       </c>
       <c r="K22" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642063</v>
       </c>
       <c r="L22" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243788</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883436</v>
       </c>
       <c r="N22" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209169</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606366</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931365</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044803</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607211</v>
       </c>
       <c r="K23" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380639</v>
       </c>
       <c r="L23" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664409</v>
       </c>
       <c r="M23" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020602</v>
       </c>
       <c r="N23" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263719</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870084</v>
+        <v>741.0722806160862</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134846</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404123</v>
       </c>
       <c r="R23" t="n">
-        <v>178.670008613675</v>
+        <v>127.3573607845849</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069157</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>133.0724380955276</v>
       </c>
       <c r="M24" t="n">
-        <v>498.1805999812731</v>
+        <v>597.9983376284133</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094321</v>
       </c>
       <c r="O24" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981776</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839163</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066086</v>
       </c>
       <c r="K25" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642063</v>
       </c>
       <c r="L25" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243788</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883436</v>
       </c>
       <c r="N25" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209169</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606366</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931365</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044803</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607211</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380639</v>
       </c>
       <c r="L26" t="n">
-        <v>677.09020389553</v>
+        <v>625.7775560664409</v>
       </c>
       <c r="M26" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020602</v>
       </c>
       <c r="N26" t="n">
-        <v>744.7323009263698</v>
+        <v>796.0449487554471</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870104</v>
       </c>
       <c r="P26" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134846</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404123</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845849</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069157</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946997</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284133</v>
       </c>
       <c r="N27" t="n">
-        <v>31.82327041454071</v>
+        <v>32.87279826758568</v>
       </c>
       <c r="O27" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981776</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839163</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426745</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066086</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642063</v>
       </c>
       <c r="L28" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243788</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883436</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209169</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606366</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931365</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044803</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607211</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380639</v>
       </c>
       <c r="L29" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664409</v>
       </c>
       <c r="M29" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020602</v>
       </c>
       <c r="N29" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263719</v>
       </c>
       <c r="O29" t="n">
-        <v>741.0722806160995</v>
+        <v>689.7596327870104</v>
       </c>
       <c r="P29" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134846</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404123</v>
       </c>
       <c r="R29" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136612</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069157</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>324.0039981367765</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284117</v>
+        <v>498.1805999812665</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094321</v>
       </c>
       <c r="O30" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981776</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>423.8217357839163</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426745</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066086</v>
       </c>
       <c r="K31" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642063</v>
       </c>
       <c r="L31" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243788</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883436</v>
       </c>
       <c r="N31" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209169</v>
       </c>
       <c r="O31" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606366</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931365</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044803</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
         <v>495.6892250946982</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>552.400479798176</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839151</v>
+        <v>122.8473193410454</v>
       </c>
       <c r="Q33" t="n">
         <v>232.8901757426737</v>
       </c>
       <c r="R33" t="n">
-        <v>2.491374886574594</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37387,16 +37387,16 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>133.0724380955349</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284117</v>
+        <v>261.3408866058347</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>552.400479798176</v>
@@ -37405,10 +37405,10 @@
         <v>423.8217357839151</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37560,13 +37560,13 @@
         <v>689.7596327870084</v>
       </c>
       <c r="P38" t="n">
-        <v>605.157040442574</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q38" t="n">
         <v>367.2547334404111</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
-        <v>60.15542093169864</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L39" t="n">
         <v>495.6892250946982</v>
@@ -37636,7 +37636,7 @@
         <v>628.3797610094305</v>
       </c>
       <c r="O39" t="n">
-        <v>552.400479798176</v>
+        <v>279.7582138724644</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37864,10 +37864,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>133.0724380955349</v>
       </c>
       <c r="M42" t="n">
-        <v>498.1805999812731</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N42" t="n">
         <v>628.3797610094305</v>
@@ -37879,7 +37879,7 @@
         <v>423.8217357839151</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>677.09020389553</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M44" t="n">
         <v>728.287436302058</v>
@@ -38040,7 +38040,7 @@
         <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>127.3573607845841</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,13 +38098,13 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M45" t="n">
-        <v>164.3333852708097</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N45" t="n">
         <v>628.3797610094305</v>
@@ -38113,10 +38113,10 @@
         <v>552.400479798176</v>
       </c>
       <c r="P45" t="n">
-        <v>423.8217357839151</v>
+        <v>61.20494878475183</v>
       </c>
       <c r="Q45" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
